--- a/設計書ひな形及びサンプル.xlsx
+++ b/設計書ひな形及びサンプル.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FD382C-910B-4BA6-A023-AAE45AD694B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB87A522-226E-4ED1-A11E-632B196054DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計書ひな形" sheetId="14" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="画面設計書_ユーザー登録画面" sheetId="15" r:id="rId4"/>
     <sheet name="機能設計書_ユーザー登録機能" sheetId="17" r:id="rId5"/>
     <sheet name="単体テスト仕様書_ユーザー登録画面" sheetId="19" r:id="rId6"/>
+    <sheet name="結合テスト仕様書" sheetId="20" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">画面設計書ひな形!$A$1:$AT$4</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="189">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -1840,6 +1841,275 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ミコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結合テスト仕様書</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務シナリオ</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様書名</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務シナリオテスト</t>
+  </si>
+  <si>
+    <t>業務異常系は単体と重複する部分があると思うので工数も踏まえ今回は行わず、正常系のみのテストケースとする。</t>
+  </si>
+  <si>
+    <t>一連の発生しうる業務シナリオをテストする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各CUD処理により一覧画面に対して想定通りの表示となるか検証すること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー系機能と勤怠系機能をリンクさせてケースを起こすこと。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録を行い、ユーザー一覧を表示する</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー一覧画面に登録したユーザーの情報が表示されること</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.1の実施後、ユーザー更新を行い、ユーザー一覧を表示する</t>
+    <rPh sb="5" eb="8">
+      <t>ジッシゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー一覧画面に更新したユーザーの情報が表示されること</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.2の実施後、ユーザー削除を行い、ユーザー一覧を表示する</t>
+    <rPh sb="5" eb="8">
+      <t>ジッシゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録を行い、登録したユーザーで勤怠登録を行い、勤怠一覧を表示する</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠一覧画面に登録した勤怠情報が表示されること</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.4の実施後、勤怠更新を行い、勤怠一覧を表示する</t>
+    <rPh sb="5" eb="8">
+      <t>ジッシゴ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠一覧画面に更新した勤怠情報が表示されること</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー一覧画面にNo.2で更新したユーザー情報が表示されないこと</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2515,8 +2785,32 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2569,19 +2863,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2605,25 +2887,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2642,15 +2942,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2680,30 +2971,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2711,6 +2978,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2743,47 +3052,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2821,32 +3118,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2854,28 +3133,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2890,7 +3151,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3911,7 +4181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1F3FB8-8883-44FA-8AB5-12D4B8E3A34A}">
   <dimension ref="A1:AT42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -3922,212 +4192,212 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="73" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="73" t="s">
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="82"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="88"/>
     </row>
     <row r="2" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="74" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="75"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="76"/>
-      <c r="AL2" s="86" t="s">
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="AM2" s="87"/>
-      <c r="AN2" s="87"/>
-      <c r="AO2" s="87"/>
-      <c r="AP2" s="87"/>
-      <c r="AQ2" s="87"/>
-      <c r="AR2" s="87"/>
-      <c r="AS2" s="87"/>
-      <c r="AT2" s="88"/>
+      <c r="AM2" s="91"/>
+      <c r="AN2" s="91"/>
+      <c r="AO2" s="91"/>
+      <c r="AP2" s="91"/>
+      <c r="AQ2" s="91"/>
+      <c r="AR2" s="91"/>
+      <c r="AS2" s="91"/>
+      <c r="AT2" s="92"/>
     </row>
     <row r="3" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="75"/>
-      <c r="AH3" s="75"/>
-      <c r="AI3" s="75"/>
-      <c r="AJ3" s="75"/>
-      <c r="AK3" s="76"/>
-      <c r="AL3" s="83" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="83"/>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="84"/>
+      <c r="AL3" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="84"/>
-      <c r="AO3" s="84"/>
-      <c r="AP3" s="84"/>
-      <c r="AQ3" s="84"/>
-      <c r="AR3" s="84"/>
-      <c r="AS3" s="84"/>
-      <c r="AT3" s="85"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="64"/>
+      <c r="AQ3" s="64"/>
+      <c r="AR3" s="64"/>
+      <c r="AS3" s="64"/>
+      <c r="AT3" s="89"/>
     </row>
     <row r="4" spans="1:46" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="78"/>
-      <c r="AG4" s="78"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="78"/>
-      <c r="AJ4" s="78"/>
-      <c r="AK4" s="79"/>
-      <c r="AL4" s="89" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="86"/>
+      <c r="AD4" s="86"/>
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="86"/>
+      <c r="AK4" s="87"/>
+      <c r="AL4" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="90"/>
-      <c r="AO4" s="90"/>
-      <c r="AP4" s="90"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="90"/>
-      <c r="AS4" s="90"/>
-      <c r="AT4" s="91"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="94"/>
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="95"/>
     </row>
     <row r="6" spans="1:46">
       <c r="A6" s="29" t="s">
@@ -4903,208 +5173,208 @@
     </row>
     <row r="22" spans="1:46">
       <c r="A22" s="8"/>
-      <c r="B22" s="94" t="s">
+      <c r="B22" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94" t="s">
+      <c r="C22" s="62"/>
+      <c r="D22" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94" t="s">
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94" t="s">
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="94"/>
-      <c r="S22" s="94"/>
-      <c r="T22" s="94" t="s">
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="U22" s="94"/>
-      <c r="V22" s="94"/>
-      <c r="W22" s="94"/>
-      <c r="X22" s="94" t="s">
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="Y22" s="94"/>
-      <c r="Z22" s="94"/>
-      <c r="AA22" s="94"/>
-      <c r="AB22" s="83" t="s">
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="62"/>
+      <c r="AA22" s="62"/>
+      <c r="AB22" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="AC22" s="84"/>
-      <c r="AD22" s="84"/>
-      <c r="AE22" s="84"/>
-      <c r="AF22" s="84"/>
-      <c r="AG22" s="84"/>
-      <c r="AH22" s="84"/>
-      <c r="AI22" s="84"/>
-      <c r="AJ22" s="84"/>
-      <c r="AK22" s="84"/>
-      <c r="AL22" s="84"/>
-      <c r="AM22" s="84"/>
-      <c r="AN22" s="84"/>
-      <c r="AO22" s="84"/>
-      <c r="AP22" s="84"/>
-      <c r="AQ22" s="84"/>
-      <c r="AR22" s="84"/>
-      <c r="AS22" s="95"/>
+      <c r="AC22" s="64"/>
+      <c r="AD22" s="64"/>
+      <c r="AE22" s="64"/>
+      <c r="AF22" s="64"/>
+      <c r="AG22" s="64"/>
+      <c r="AH22" s="64"/>
+      <c r="AI22" s="64"/>
+      <c r="AJ22" s="64"/>
+      <c r="AK22" s="64"/>
+      <c r="AL22" s="64"/>
+      <c r="AM22" s="64"/>
+      <c r="AN22" s="64"/>
+      <c r="AO22" s="64"/>
+      <c r="AP22" s="64"/>
+      <c r="AQ22" s="64"/>
+      <c r="AR22" s="64"/>
+      <c r="AS22" s="65"/>
       <c r="AT22" s="10"/>
     </row>
     <row r="23" spans="1:46">
       <c r="A23" s="8"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="80"/>
-      <c r="R23" s="80"/>
-      <c r="S23" s="80"/>
-      <c r="T23" s="80"/>
-      <c r="U23" s="80"/>
-      <c r="V23" s="80"/>
-      <c r="W23" s="80"/>
-      <c r="X23" s="80"/>
-      <c r="Y23" s="80"/>
-      <c r="Z23" s="80"/>
-      <c r="AA23" s="80"/>
-      <c r="AB23" s="92"/>
-      <c r="AC23" s="92"/>
-      <c r="AD23" s="92"/>
-      <c r="AE23" s="92"/>
-      <c r="AF23" s="92"/>
-      <c r="AG23" s="92"/>
-      <c r="AH23" s="92"/>
-      <c r="AI23" s="92"/>
-      <c r="AJ23" s="92"/>
-      <c r="AK23" s="92"/>
-      <c r="AL23" s="92"/>
-      <c r="AM23" s="92"/>
-      <c r="AN23" s="92"/>
-      <c r="AO23" s="92"/>
-      <c r="AP23" s="92"/>
-      <c r="AQ23" s="92"/>
-      <c r="AR23" s="92"/>
-      <c r="AS23" s="92"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="70"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="70"/>
+      <c r="V23" s="70"/>
+      <c r="W23" s="70"/>
+      <c r="X23" s="70"/>
+      <c r="Y23" s="70"/>
+      <c r="Z23" s="70"/>
+      <c r="AA23" s="70"/>
+      <c r="AB23" s="66"/>
+      <c r="AC23" s="66"/>
+      <c r="AD23" s="66"/>
+      <c r="AE23" s="66"/>
+      <c r="AF23" s="66"/>
+      <c r="AG23" s="66"/>
+      <c r="AH23" s="66"/>
+      <c r="AI23" s="66"/>
+      <c r="AJ23" s="66"/>
+      <c r="AK23" s="66"/>
+      <c r="AL23" s="66"/>
+      <c r="AM23" s="66"/>
+      <c r="AN23" s="66"/>
+      <c r="AO23" s="66"/>
+      <c r="AP23" s="66"/>
+      <c r="AQ23" s="66"/>
+      <c r="AR23" s="66"/>
+      <c r="AS23" s="66"/>
       <c r="AT23" s="10"/>
     </row>
     <row r="24" spans="1:46">
       <c r="A24" s="8"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="81"/>
-      <c r="T24" s="81"/>
-      <c r="U24" s="81"/>
-      <c r="V24" s="81"/>
-      <c r="W24" s="81"/>
-      <c r="X24" s="81"/>
-      <c r="Y24" s="81"/>
-      <c r="Z24" s="81"/>
-      <c r="AA24" s="81"/>
-      <c r="AB24" s="62"/>
-      <c r="AC24" s="62"/>
-      <c r="AD24" s="62"/>
-      <c r="AE24" s="62"/>
-      <c r="AF24" s="62"/>
-      <c r="AG24" s="62"/>
-      <c r="AH24" s="62"/>
-      <c r="AI24" s="62"/>
-      <c r="AJ24" s="62"/>
-      <c r="AK24" s="62"/>
-      <c r="AL24" s="62"/>
-      <c r="AM24" s="62"/>
-      <c r="AN24" s="62"/>
-      <c r="AO24" s="62"/>
-      <c r="AP24" s="62"/>
-      <c r="AQ24" s="62"/>
-      <c r="AR24" s="62"/>
-      <c r="AS24" s="62"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="69"/>
+      <c r="S24" s="69"/>
+      <c r="T24" s="69"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="69"/>
+      <c r="X24" s="69"/>
+      <c r="Y24" s="69"/>
+      <c r="Z24" s="69"/>
+      <c r="AA24" s="69"/>
+      <c r="AB24" s="67"/>
+      <c r="AC24" s="67"/>
+      <c r="AD24" s="67"/>
+      <c r="AE24" s="67"/>
+      <c r="AF24" s="67"/>
+      <c r="AG24" s="67"/>
+      <c r="AH24" s="67"/>
+      <c r="AI24" s="67"/>
+      <c r="AJ24" s="67"/>
+      <c r="AK24" s="67"/>
+      <c r="AL24" s="67"/>
+      <c r="AM24" s="67"/>
+      <c r="AN24" s="67"/>
+      <c r="AO24" s="67"/>
+      <c r="AP24" s="67"/>
+      <c r="AQ24" s="67"/>
+      <c r="AR24" s="67"/>
+      <c r="AS24" s="67"/>
       <c r="AT24" s="10"/>
     </row>
     <row r="25" spans="1:46">
       <c r="A25" s="8"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="63"/>
-      <c r="S25" s="63"/>
-      <c r="T25" s="63"/>
-      <c r="U25" s="63"/>
-      <c r="V25" s="63"/>
-      <c r="W25" s="63"/>
-      <c r="X25" s="63"/>
-      <c r="Y25" s="63"/>
-      <c r="Z25" s="63"/>
-      <c r="AA25" s="63"/>
-      <c r="AB25" s="93"/>
-      <c r="AC25" s="93"/>
-      <c r="AD25" s="93"/>
-      <c r="AE25" s="93"/>
-      <c r="AF25" s="93"/>
-      <c r="AG25" s="93"/>
-      <c r="AH25" s="93"/>
-      <c r="AI25" s="93"/>
-      <c r="AJ25" s="93"/>
-      <c r="AK25" s="93"/>
-      <c r="AL25" s="93"/>
-      <c r="AM25" s="93"/>
-      <c r="AN25" s="93"/>
-      <c r="AO25" s="93"/>
-      <c r="AP25" s="93"/>
-      <c r="AQ25" s="93"/>
-      <c r="AR25" s="93"/>
-      <c r="AS25" s="93"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="71"/>
+      <c r="V25" s="71"/>
+      <c r="W25" s="71"/>
+      <c r="X25" s="71"/>
+      <c r="Y25" s="71"/>
+      <c r="Z25" s="71"/>
+      <c r="AA25" s="71"/>
+      <c r="AB25" s="68"/>
+      <c r="AC25" s="68"/>
+      <c r="AD25" s="68"/>
+      <c r="AE25" s="68"/>
+      <c r="AF25" s="68"/>
+      <c r="AG25" s="68"/>
+      <c r="AH25" s="68"/>
+      <c r="AI25" s="68"/>
+      <c r="AJ25" s="68"/>
+      <c r="AK25" s="68"/>
+      <c r="AL25" s="68"/>
+      <c r="AM25" s="68"/>
+      <c r="AN25" s="68"/>
+      <c r="AO25" s="68"/>
+      <c r="AP25" s="68"/>
+      <c r="AQ25" s="68"/>
+      <c r="AR25" s="68"/>
+      <c r="AS25" s="68"/>
       <c r="AT25" s="10"/>
     </row>
     <row r="26" spans="1:46">
@@ -5953,27 +6223,10 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="X22:AA22"/>
-    <mergeCell ref="AB22:AS22"/>
-    <mergeCell ref="D23:K23"/>
-    <mergeCell ref="D24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="X24:AA24"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="X23:AA23"/>
-    <mergeCell ref="AB23:AS23"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="X25:AA25"/>
-    <mergeCell ref="AB25:AS25"/>
-    <mergeCell ref="AB24:AS24"/>
+    <mergeCell ref="AL1:AT1"/>
+    <mergeCell ref="AL3:AT3"/>
+    <mergeCell ref="AL2:AT2"/>
+    <mergeCell ref="AL4:AT4"/>
     <mergeCell ref="P25:S25"/>
     <mergeCell ref="L25:O25"/>
     <mergeCell ref="A1:I1"/>
@@ -5985,10 +6238,27 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="AL1:AT1"/>
-    <mergeCell ref="AL3:AT3"/>
-    <mergeCell ref="AL2:AT2"/>
-    <mergeCell ref="AL4:AT4"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="X22:AA22"/>
+    <mergeCell ref="AB22:AS22"/>
+    <mergeCell ref="D23:K23"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="X24:AA24"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="X23:AA23"/>
+    <mergeCell ref="AB23:AS23"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="X25:AA25"/>
+    <mergeCell ref="AB25:AS25"/>
+    <mergeCell ref="AB24:AS24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6012,212 +6282,212 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="73" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="73" t="s">
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="82"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="88"/>
     </row>
     <row r="2" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="74" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="75"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="76"/>
-      <c r="AL2" s="86" t="s">
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="AM2" s="87"/>
-      <c r="AN2" s="87"/>
-      <c r="AO2" s="87"/>
-      <c r="AP2" s="87"/>
-      <c r="AQ2" s="87"/>
-      <c r="AR2" s="87"/>
-      <c r="AS2" s="87"/>
-      <c r="AT2" s="88"/>
+      <c r="AM2" s="91"/>
+      <c r="AN2" s="91"/>
+      <c r="AO2" s="91"/>
+      <c r="AP2" s="91"/>
+      <c r="AQ2" s="91"/>
+      <c r="AR2" s="91"/>
+      <c r="AS2" s="91"/>
+      <c r="AT2" s="92"/>
     </row>
     <row r="3" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="75"/>
-      <c r="AH3" s="75"/>
-      <c r="AI3" s="75"/>
-      <c r="AJ3" s="75"/>
-      <c r="AK3" s="76"/>
-      <c r="AL3" s="83" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="83"/>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="84"/>
+      <c r="AL3" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="84"/>
-      <c r="AO3" s="84"/>
-      <c r="AP3" s="84"/>
-      <c r="AQ3" s="84"/>
-      <c r="AR3" s="84"/>
-      <c r="AS3" s="84"/>
-      <c r="AT3" s="85"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="64"/>
+      <c r="AQ3" s="64"/>
+      <c r="AR3" s="64"/>
+      <c r="AS3" s="64"/>
+      <c r="AT3" s="89"/>
     </row>
     <row r="4" spans="1:46" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="78"/>
-      <c r="AG4" s="78"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="78"/>
-      <c r="AJ4" s="78"/>
-      <c r="AK4" s="79"/>
-      <c r="AL4" s="89" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="86"/>
+      <c r="AD4" s="86"/>
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="86"/>
+      <c r="AK4" s="87"/>
+      <c r="AL4" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="90"/>
-      <c r="AO4" s="90"/>
-      <c r="AP4" s="90"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="90"/>
-      <c r="AS4" s="90"/>
-      <c r="AT4" s="91"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="94"/>
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="95"/>
     </row>
     <row r="6" spans="1:46">
       <c r="A6" s="29" t="s">
@@ -7821,28 +8091,28 @@
     </row>
     <row r="40" spans="1:46">
       <c r="A40" s="8"/>
-      <c r="C40" s="118" t="s">
+      <c r="C40" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="119"/>
-      <c r="E40" s="119"/>
-      <c r="F40" s="119"/>
-      <c r="G40" s="119"/>
-      <c r="H40" s="119"/>
-      <c r="I40" s="119"/>
-      <c r="J40" s="119"/>
-      <c r="K40" s="119"/>
-      <c r="L40" s="119"/>
-      <c r="M40" s="119"/>
-      <c r="N40" s="119"/>
-      <c r="O40" s="119"/>
-      <c r="P40" s="119"/>
-      <c r="Q40" s="119"/>
-      <c r="R40" s="119"/>
-      <c r="S40" s="119"/>
-      <c r="T40" s="119"/>
-      <c r="U40" s="119"/>
-      <c r="V40" s="120"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="97"/>
+      <c r="J40" s="97"/>
+      <c r="K40" s="97"/>
+      <c r="L40" s="97"/>
+      <c r="M40" s="97"/>
+      <c r="N40" s="97"/>
+      <c r="O40" s="97"/>
+      <c r="P40" s="97"/>
+      <c r="Q40" s="97"/>
+      <c r="R40" s="97"/>
+      <c r="S40" s="97"/>
+      <c r="T40" s="97"/>
+      <c r="U40" s="97"/>
+      <c r="V40" s="98"/>
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
@@ -7871,27 +8141,27 @@
     <row r="41" spans="1:46">
       <c r="A41" s="8"/>
       <c r="C41" s="40"/>
-      <c r="D41" s="121" t="s">
+      <c r="D41" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="122"/>
-      <c r="F41" s="122"/>
-      <c r="G41" s="122"/>
-      <c r="H41" s="122"/>
-      <c r="I41" s="122"/>
-      <c r="J41" s="122"/>
-      <c r="K41" s="122"/>
-      <c r="L41" s="122"/>
-      <c r="M41" s="122"/>
-      <c r="N41" s="122"/>
-      <c r="O41" s="122"/>
-      <c r="P41" s="122"/>
-      <c r="Q41" s="122"/>
-      <c r="R41" s="122"/>
-      <c r="S41" s="122"/>
-      <c r="T41" s="122"/>
-      <c r="U41" s="122"/>
-      <c r="V41" s="123"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="100"/>
+      <c r="K41" s="100"/>
+      <c r="L41" s="100"/>
+      <c r="M41" s="100"/>
+      <c r="N41" s="100"/>
+      <c r="O41" s="100"/>
+      <c r="P41" s="100"/>
+      <c r="Q41" s="100"/>
+      <c r="R41" s="100"/>
+      <c r="S41" s="100"/>
+      <c r="T41" s="100"/>
+      <c r="U41" s="100"/>
+      <c r="V41" s="101"/>
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
@@ -7920,27 +8190,27 @@
     <row r="42" spans="1:46">
       <c r="A42" s="8"/>
       <c r="C42" s="40"/>
-      <c r="D42" s="105" t="s">
+      <c r="D42" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="E42" s="106"/>
-      <c r="F42" s="106"/>
-      <c r="G42" s="106"/>
-      <c r="H42" s="106"/>
-      <c r="I42" s="106"/>
-      <c r="J42" s="106"/>
-      <c r="K42" s="106"/>
-      <c r="L42" s="106"/>
-      <c r="M42" s="106"/>
-      <c r="N42" s="106"/>
-      <c r="O42" s="106"/>
-      <c r="P42" s="106"/>
-      <c r="Q42" s="106"/>
-      <c r="R42" s="106"/>
-      <c r="S42" s="106"/>
-      <c r="T42" s="106"/>
-      <c r="U42" s="106"/>
-      <c r="V42" s="107"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="103"/>
+      <c r="J42" s="103"/>
+      <c r="K42" s="103"/>
+      <c r="L42" s="103"/>
+      <c r="M42" s="103"/>
+      <c r="N42" s="103"/>
+      <c r="O42" s="103"/>
+      <c r="P42" s="103"/>
+      <c r="Q42" s="103"/>
+      <c r="R42" s="103"/>
+      <c r="S42" s="103"/>
+      <c r="T42" s="103"/>
+      <c r="U42" s="103"/>
+      <c r="V42" s="104"/>
       <c r="W42" s="9"/>
       <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
@@ -7969,27 +8239,27 @@
     <row r="43" spans="1:46">
       <c r="A43" s="8"/>
       <c r="C43" s="40"/>
-      <c r="D43" s="118" t="s">
+      <c r="D43" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="119"/>
-      <c r="F43" s="119"/>
-      <c r="G43" s="119"/>
-      <c r="H43" s="119"/>
-      <c r="I43" s="119"/>
-      <c r="J43" s="119"/>
-      <c r="K43" s="119"/>
-      <c r="L43" s="119"/>
-      <c r="M43" s="119"/>
-      <c r="N43" s="119"/>
-      <c r="O43" s="119"/>
-      <c r="P43" s="119"/>
-      <c r="Q43" s="119"/>
-      <c r="R43" s="119"/>
-      <c r="S43" s="119"/>
-      <c r="T43" s="119"/>
-      <c r="U43" s="119"/>
-      <c r="V43" s="120"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="97"/>
+      <c r="I43" s="97"/>
+      <c r="J43" s="97"/>
+      <c r="K43" s="97"/>
+      <c r="L43" s="97"/>
+      <c r="M43" s="97"/>
+      <c r="N43" s="97"/>
+      <c r="O43" s="97"/>
+      <c r="P43" s="97"/>
+      <c r="Q43" s="97"/>
+      <c r="R43" s="97"/>
+      <c r="S43" s="97"/>
+      <c r="T43" s="97"/>
+      <c r="U43" s="97"/>
+      <c r="V43" s="98"/>
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
       <c r="Y43" s="9"/>
@@ -8018,29 +8288,29 @@
     <row r="44" spans="1:46">
       <c r="A44" s="8"/>
       <c r="C44" s="40"/>
-      <c r="D44" s="121" t="s">
+      <c r="D44" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="122"/>
-      <c r="F44" s="122"/>
-      <c r="G44" s="122"/>
-      <c r="H44" s="122"/>
-      <c r="I44" s="122"/>
-      <c r="J44" s="123"/>
-      <c r="K44" s="121" t="s">
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="101"/>
+      <c r="K44" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="L44" s="122"/>
-      <c r="M44" s="122"/>
-      <c r="N44" s="122"/>
-      <c r="O44" s="122"/>
-      <c r="P44" s="122"/>
-      <c r="Q44" s="122"/>
-      <c r="R44" s="122"/>
-      <c r="S44" s="122"/>
-      <c r="T44" s="122"/>
-      <c r="U44" s="122"/>
-      <c r="V44" s="123"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="100"/>
+      <c r="O44" s="100"/>
+      <c r="P44" s="100"/>
+      <c r="Q44" s="100"/>
+      <c r="R44" s="100"/>
+      <c r="S44" s="100"/>
+      <c r="T44" s="100"/>
+      <c r="U44" s="100"/>
+      <c r="V44" s="101"/>
       <c r="W44" s="9"/>
       <c r="X44" s="9"/>
       <c r="Y44" s="9"/>
@@ -8362,28 +8632,28 @@
     </row>
     <row r="52" spans="1:46">
       <c r="A52" s="8"/>
-      <c r="C52" s="117" t="s">
+      <c r="C52" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="97"/>
-      <c r="E52" s="97"/>
-      <c r="F52" s="97"/>
-      <c r="G52" s="97"/>
-      <c r="H52" s="97"/>
-      <c r="I52" s="97"/>
-      <c r="J52" s="97"/>
-      <c r="K52" s="97"/>
-      <c r="L52" s="97"/>
-      <c r="M52" s="97"/>
-      <c r="N52" s="97"/>
-      <c r="O52" s="97"/>
-      <c r="P52" s="97"/>
-      <c r="Q52" s="97"/>
-      <c r="R52" s="97"/>
-      <c r="S52" s="97"/>
-      <c r="T52" s="97"/>
-      <c r="U52" s="97"/>
-      <c r="V52" s="98"/>
+      <c r="D52" s="106"/>
+      <c r="E52" s="106"/>
+      <c r="F52" s="106"/>
+      <c r="G52" s="106"/>
+      <c r="H52" s="106"/>
+      <c r="I52" s="106"/>
+      <c r="J52" s="106"/>
+      <c r="K52" s="106"/>
+      <c r="L52" s="106"/>
+      <c r="M52" s="106"/>
+      <c r="N52" s="106"/>
+      <c r="O52" s="106"/>
+      <c r="P52" s="106"/>
+      <c r="Q52" s="106"/>
+      <c r="R52" s="106"/>
+      <c r="S52" s="106"/>
+      <c r="T52" s="106"/>
+      <c r="U52" s="106"/>
+      <c r="V52" s="107"/>
       <c r="W52" s="9"/>
       <c r="X52" s="9"/>
       <c r="Y52" s="9"/>
@@ -8412,27 +8682,27 @@
     <row r="53" spans="1:46">
       <c r="A53" s="8"/>
       <c r="C53" s="24"/>
-      <c r="D53" s="99" t="s">
+      <c r="D53" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="E53" s="100"/>
-      <c r="F53" s="100"/>
-      <c r="G53" s="100"/>
-      <c r="H53" s="100"/>
-      <c r="I53" s="100"/>
-      <c r="J53" s="100"/>
-      <c r="K53" s="100"/>
-      <c r="L53" s="100"/>
-      <c r="M53" s="100"/>
-      <c r="N53" s="100"/>
-      <c r="O53" s="100"/>
-      <c r="P53" s="100"/>
-      <c r="Q53" s="100"/>
-      <c r="R53" s="100"/>
-      <c r="S53" s="100"/>
-      <c r="T53" s="100"/>
-      <c r="U53" s="100"/>
-      <c r="V53" s="101"/>
+      <c r="E53" s="110"/>
+      <c r="F53" s="110"/>
+      <c r="G53" s="110"/>
+      <c r="H53" s="110"/>
+      <c r="I53" s="110"/>
+      <c r="J53" s="110"/>
+      <c r="K53" s="110"/>
+      <c r="L53" s="110"/>
+      <c r="M53" s="110"/>
+      <c r="N53" s="110"/>
+      <c r="O53" s="110"/>
+      <c r="P53" s="110"/>
+      <c r="Q53" s="110"/>
+      <c r="R53" s="110"/>
+      <c r="S53" s="110"/>
+      <c r="T53" s="110"/>
+      <c r="U53" s="110"/>
+      <c r="V53" s="111"/>
       <c r="W53" s="9"/>
       <c r="X53" s="9"/>
       <c r="Y53" s="9"/>
@@ -8657,27 +8927,27 @@
     <row r="58" spans="1:46">
       <c r="A58" s="8"/>
       <c r="C58" s="23"/>
-      <c r="D58" s="96" t="s">
+      <c r="D58" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="E58" s="97"/>
-      <c r="F58" s="97"/>
-      <c r="G58" s="97"/>
-      <c r="H58" s="97"/>
-      <c r="I58" s="97"/>
-      <c r="J58" s="97"/>
-      <c r="K58" s="97"/>
-      <c r="L58" s="97"/>
-      <c r="M58" s="97"/>
-      <c r="N58" s="97"/>
-      <c r="O58" s="97"/>
-      <c r="P58" s="97"/>
-      <c r="Q58" s="97"/>
-      <c r="R58" s="97"/>
-      <c r="S58" s="97"/>
-      <c r="T58" s="97"/>
-      <c r="U58" s="97"/>
-      <c r="V58" s="98"/>
+      <c r="E58" s="106"/>
+      <c r="F58" s="106"/>
+      <c r="G58" s="106"/>
+      <c r="H58" s="106"/>
+      <c r="I58" s="106"/>
+      <c r="J58" s="106"/>
+      <c r="K58" s="106"/>
+      <c r="L58" s="106"/>
+      <c r="M58" s="106"/>
+      <c r="N58" s="106"/>
+      <c r="O58" s="106"/>
+      <c r="P58" s="106"/>
+      <c r="Q58" s="106"/>
+      <c r="R58" s="106"/>
+      <c r="S58" s="106"/>
+      <c r="T58" s="106"/>
+      <c r="U58" s="106"/>
+      <c r="V58" s="107"/>
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
       <c r="Y58" s="9"/>
@@ -8706,27 +8976,27 @@
     <row r="59" spans="1:46">
       <c r="A59" s="8"/>
       <c r="C59" s="23"/>
-      <c r="D59" s="105" t="s">
+      <c r="D59" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="E59" s="106"/>
-      <c r="F59" s="106"/>
-      <c r="G59" s="106"/>
-      <c r="H59" s="106"/>
-      <c r="I59" s="106"/>
-      <c r="J59" s="106"/>
-      <c r="K59" s="106"/>
-      <c r="L59" s="106"/>
-      <c r="M59" s="106"/>
-      <c r="N59" s="106"/>
-      <c r="O59" s="106"/>
-      <c r="P59" s="106"/>
-      <c r="Q59" s="106"/>
-      <c r="R59" s="106"/>
-      <c r="S59" s="106"/>
-      <c r="T59" s="106"/>
-      <c r="U59" s="106"/>
-      <c r="V59" s="107"/>
+      <c r="E59" s="103"/>
+      <c r="F59" s="103"/>
+      <c r="G59" s="103"/>
+      <c r="H59" s="103"/>
+      <c r="I59" s="103"/>
+      <c r="J59" s="103"/>
+      <c r="K59" s="103"/>
+      <c r="L59" s="103"/>
+      <c r="M59" s="103"/>
+      <c r="N59" s="103"/>
+      <c r="O59" s="103"/>
+      <c r="P59" s="103"/>
+      <c r="Q59" s="103"/>
+      <c r="R59" s="103"/>
+      <c r="S59" s="103"/>
+      <c r="T59" s="103"/>
+      <c r="U59" s="103"/>
+      <c r="V59" s="104"/>
       <c r="W59" s="9"/>
       <c r="X59" s="9"/>
       <c r="Y59" s="9"/>
@@ -8755,27 +9025,27 @@
     <row r="60" spans="1:46">
       <c r="A60" s="8"/>
       <c r="C60" s="23"/>
-      <c r="D60" s="96" t="s">
+      <c r="D60" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="E60" s="97"/>
-      <c r="F60" s="97"/>
-      <c r="G60" s="97"/>
-      <c r="H60" s="97"/>
-      <c r="I60" s="97"/>
-      <c r="J60" s="97"/>
-      <c r="K60" s="97"/>
-      <c r="L60" s="97"/>
-      <c r="M60" s="97"/>
-      <c r="N60" s="97"/>
-      <c r="O60" s="97"/>
-      <c r="P60" s="97"/>
-      <c r="Q60" s="97"/>
-      <c r="R60" s="97"/>
-      <c r="S60" s="97"/>
-      <c r="T60" s="97"/>
-      <c r="U60" s="97"/>
-      <c r="V60" s="98"/>
+      <c r="E60" s="106"/>
+      <c r="F60" s="106"/>
+      <c r="G60" s="106"/>
+      <c r="H60" s="106"/>
+      <c r="I60" s="106"/>
+      <c r="J60" s="106"/>
+      <c r="K60" s="106"/>
+      <c r="L60" s="106"/>
+      <c r="M60" s="106"/>
+      <c r="N60" s="106"/>
+      <c r="O60" s="106"/>
+      <c r="P60" s="106"/>
+      <c r="Q60" s="106"/>
+      <c r="R60" s="106"/>
+      <c r="S60" s="106"/>
+      <c r="T60" s="106"/>
+      <c r="U60" s="106"/>
+      <c r="V60" s="107"/>
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
       <c r="Y60" s="9"/>
@@ -8804,27 +9074,27 @@
     <row r="61" spans="1:46">
       <c r="A61" s="8"/>
       <c r="C61" s="23"/>
-      <c r="D61" s="105" t="s">
+      <c r="D61" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="E61" s="106"/>
-      <c r="F61" s="106"/>
-      <c r="G61" s="106"/>
-      <c r="H61" s="106"/>
-      <c r="I61" s="106"/>
-      <c r="J61" s="106"/>
-      <c r="K61" s="106"/>
-      <c r="L61" s="106"/>
-      <c r="M61" s="106"/>
-      <c r="N61" s="106"/>
-      <c r="O61" s="106"/>
-      <c r="P61" s="106"/>
-      <c r="Q61" s="106"/>
-      <c r="R61" s="106"/>
-      <c r="S61" s="106"/>
-      <c r="T61" s="106"/>
-      <c r="U61" s="106"/>
-      <c r="V61" s="107"/>
+      <c r="E61" s="103"/>
+      <c r="F61" s="103"/>
+      <c r="G61" s="103"/>
+      <c r="H61" s="103"/>
+      <c r="I61" s="103"/>
+      <c r="J61" s="103"/>
+      <c r="K61" s="103"/>
+      <c r="L61" s="103"/>
+      <c r="M61" s="103"/>
+      <c r="N61" s="103"/>
+      <c r="O61" s="103"/>
+      <c r="P61" s="103"/>
+      <c r="Q61" s="103"/>
+      <c r="R61" s="103"/>
+      <c r="S61" s="103"/>
+      <c r="T61" s="103"/>
+      <c r="U61" s="103"/>
+      <c r="V61" s="104"/>
       <c r="W61" s="9"/>
       <c r="X61" s="9"/>
       <c r="Y61" s="9"/>
@@ -8853,27 +9123,27 @@
     <row r="62" spans="1:46">
       <c r="A62" s="8"/>
       <c r="C62" s="23"/>
-      <c r="D62" s="96" t="s">
+      <c r="D62" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="E62" s="97"/>
-      <c r="F62" s="97"/>
-      <c r="G62" s="97"/>
-      <c r="H62" s="97"/>
-      <c r="I62" s="97"/>
-      <c r="J62" s="97"/>
-      <c r="K62" s="97"/>
-      <c r="L62" s="97"/>
-      <c r="M62" s="97"/>
-      <c r="N62" s="97"/>
-      <c r="O62" s="97"/>
-      <c r="P62" s="97"/>
-      <c r="Q62" s="97"/>
-      <c r="R62" s="97"/>
-      <c r="S62" s="97"/>
-      <c r="T62" s="97"/>
-      <c r="U62" s="97"/>
-      <c r="V62" s="98"/>
+      <c r="E62" s="106"/>
+      <c r="F62" s="106"/>
+      <c r="G62" s="106"/>
+      <c r="H62" s="106"/>
+      <c r="I62" s="106"/>
+      <c r="J62" s="106"/>
+      <c r="K62" s="106"/>
+      <c r="L62" s="106"/>
+      <c r="M62" s="106"/>
+      <c r="N62" s="106"/>
+      <c r="O62" s="106"/>
+      <c r="P62" s="106"/>
+      <c r="Q62" s="106"/>
+      <c r="R62" s="106"/>
+      <c r="S62" s="106"/>
+      <c r="T62" s="106"/>
+      <c r="U62" s="106"/>
+      <c r="V62" s="107"/>
       <c r="W62" s="9"/>
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
@@ -9177,28 +9447,28 @@
     </row>
     <row r="69" spans="1:46">
       <c r="A69" s="8"/>
-      <c r="C69" s="111" t="s">
+      <c r="C69" s="118" t="s">
         <v>106</v>
       </c>
-      <c r="D69" s="112"/>
-      <c r="E69" s="112"/>
-      <c r="F69" s="112"/>
-      <c r="G69" s="112"/>
-      <c r="H69" s="112"/>
-      <c r="I69" s="112"/>
-      <c r="J69" s="112"/>
-      <c r="K69" s="112"/>
-      <c r="L69" s="112"/>
-      <c r="M69" s="112"/>
-      <c r="N69" s="112"/>
-      <c r="O69" s="112"/>
-      <c r="P69" s="112"/>
-      <c r="Q69" s="112"/>
-      <c r="R69" s="112"/>
-      <c r="S69" s="112"/>
-      <c r="T69" s="112"/>
-      <c r="U69" s="112"/>
-      <c r="V69" s="113"/>
+      <c r="D69" s="119"/>
+      <c r="E69" s="119"/>
+      <c r="F69" s="119"/>
+      <c r="G69" s="119"/>
+      <c r="H69" s="119"/>
+      <c r="I69" s="119"/>
+      <c r="J69" s="119"/>
+      <c r="K69" s="119"/>
+      <c r="L69" s="119"/>
+      <c r="M69" s="119"/>
+      <c r="N69" s="119"/>
+      <c r="O69" s="119"/>
+      <c r="P69" s="119"/>
+      <c r="Q69" s="119"/>
+      <c r="R69" s="119"/>
+      <c r="S69" s="119"/>
+      <c r="T69" s="119"/>
+      <c r="U69" s="119"/>
+      <c r="V69" s="120"/>
       <c r="W69" s="9"/>
       <c r="X69" s="9"/>
       <c r="Y69" s="9"/>
@@ -9227,27 +9497,27 @@
     <row r="70" spans="1:46">
       <c r="A70" s="8"/>
       <c r="C70" s="45"/>
-      <c r="D70" s="114" t="s">
+      <c r="D70" s="121" t="s">
         <v>107</v>
       </c>
-      <c r="E70" s="115"/>
-      <c r="F70" s="115"/>
-      <c r="G70" s="115"/>
-      <c r="H70" s="115"/>
-      <c r="I70" s="115"/>
-      <c r="J70" s="115"/>
-      <c r="K70" s="115"/>
-      <c r="L70" s="115"/>
-      <c r="M70" s="115"/>
-      <c r="N70" s="115"/>
-      <c r="O70" s="115"/>
-      <c r="P70" s="115"/>
-      <c r="Q70" s="115"/>
-      <c r="R70" s="115"/>
-      <c r="S70" s="115"/>
-      <c r="T70" s="115"/>
-      <c r="U70" s="115"/>
-      <c r="V70" s="116"/>
+      <c r="E70" s="122"/>
+      <c r="F70" s="122"/>
+      <c r="G70" s="122"/>
+      <c r="H70" s="122"/>
+      <c r="I70" s="122"/>
+      <c r="J70" s="122"/>
+      <c r="K70" s="122"/>
+      <c r="L70" s="122"/>
+      <c r="M70" s="122"/>
+      <c r="N70" s="122"/>
+      <c r="O70" s="122"/>
+      <c r="P70" s="122"/>
+      <c r="Q70" s="122"/>
+      <c r="R70" s="122"/>
+      <c r="S70" s="122"/>
+      <c r="T70" s="122"/>
+      <c r="U70" s="122"/>
+      <c r="V70" s="123"/>
       <c r="W70" s="9"/>
       <c r="X70" s="9"/>
       <c r="Y70" s="9"/>
@@ -9276,27 +9546,27 @@
     <row r="71" spans="1:46">
       <c r="A71" s="8"/>
       <c r="C71" s="45"/>
-      <c r="D71" s="105" t="s">
+      <c r="D71" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="E71" s="106"/>
-      <c r="F71" s="106"/>
-      <c r="G71" s="106"/>
-      <c r="H71" s="106"/>
-      <c r="I71" s="106"/>
-      <c r="J71" s="106"/>
-      <c r="K71" s="106"/>
-      <c r="L71" s="106"/>
-      <c r="M71" s="106"/>
-      <c r="N71" s="106"/>
-      <c r="O71" s="106"/>
-      <c r="P71" s="106"/>
-      <c r="Q71" s="106"/>
-      <c r="R71" s="106"/>
-      <c r="S71" s="106"/>
-      <c r="T71" s="106"/>
-      <c r="U71" s="106"/>
-      <c r="V71" s="107"/>
+      <c r="E71" s="103"/>
+      <c r="F71" s="103"/>
+      <c r="G71" s="103"/>
+      <c r="H71" s="103"/>
+      <c r="I71" s="103"/>
+      <c r="J71" s="103"/>
+      <c r="K71" s="103"/>
+      <c r="L71" s="103"/>
+      <c r="M71" s="103"/>
+      <c r="N71" s="103"/>
+      <c r="O71" s="103"/>
+      <c r="P71" s="103"/>
+      <c r="Q71" s="103"/>
+      <c r="R71" s="103"/>
+      <c r="S71" s="103"/>
+      <c r="T71" s="103"/>
+      <c r="U71" s="103"/>
+      <c r="V71" s="104"/>
       <c r="W71" s="9"/>
       <c r="X71" s="9"/>
       <c r="Y71" s="9"/>
@@ -9325,27 +9595,27 @@
     <row r="72" spans="1:46">
       <c r="A72" s="8"/>
       <c r="C72" s="45"/>
-      <c r="D72" s="111" t="s">
+      <c r="D72" s="118" t="s">
         <v>108</v>
       </c>
-      <c r="E72" s="112"/>
-      <c r="F72" s="112"/>
-      <c r="G72" s="112"/>
-      <c r="H72" s="112"/>
-      <c r="I72" s="112"/>
-      <c r="J72" s="112"/>
-      <c r="K72" s="112"/>
-      <c r="L72" s="112"/>
-      <c r="M72" s="112"/>
-      <c r="N72" s="112"/>
-      <c r="O72" s="112"/>
-      <c r="P72" s="112"/>
-      <c r="Q72" s="112"/>
-      <c r="R72" s="112"/>
-      <c r="S72" s="112"/>
-      <c r="T72" s="112"/>
-      <c r="U72" s="112"/>
-      <c r="V72" s="113"/>
+      <c r="E72" s="119"/>
+      <c r="F72" s="119"/>
+      <c r="G72" s="119"/>
+      <c r="H72" s="119"/>
+      <c r="I72" s="119"/>
+      <c r="J72" s="119"/>
+      <c r="K72" s="119"/>
+      <c r="L72" s="119"/>
+      <c r="M72" s="119"/>
+      <c r="N72" s="119"/>
+      <c r="O72" s="119"/>
+      <c r="P72" s="119"/>
+      <c r="Q72" s="119"/>
+      <c r="R72" s="119"/>
+      <c r="S72" s="119"/>
+      <c r="T72" s="119"/>
+      <c r="U72" s="119"/>
+      <c r="V72" s="120"/>
       <c r="W72" s="9"/>
       <c r="X72" s="9"/>
       <c r="Y72" s="9"/>
@@ -9374,29 +9644,29 @@
     <row r="73" spans="1:46">
       <c r="A73" s="8"/>
       <c r="C73" s="45"/>
-      <c r="D73" s="114" t="s">
+      <c r="D73" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="E73" s="115"/>
-      <c r="F73" s="115"/>
-      <c r="G73" s="115"/>
-      <c r="H73" s="115"/>
-      <c r="I73" s="115"/>
-      <c r="J73" s="116"/>
-      <c r="K73" s="114" t="s">
+      <c r="E73" s="122"/>
+      <c r="F73" s="122"/>
+      <c r="G73" s="122"/>
+      <c r="H73" s="122"/>
+      <c r="I73" s="122"/>
+      <c r="J73" s="123"/>
+      <c r="K73" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="L73" s="115"/>
-      <c r="M73" s="115"/>
-      <c r="N73" s="115"/>
-      <c r="O73" s="115"/>
-      <c r="P73" s="115"/>
-      <c r="Q73" s="115"/>
-      <c r="R73" s="115"/>
-      <c r="S73" s="115"/>
-      <c r="T73" s="115"/>
-      <c r="U73" s="115"/>
-      <c r="V73" s="116"/>
+      <c r="L73" s="122"/>
+      <c r="M73" s="122"/>
+      <c r="N73" s="122"/>
+      <c r="O73" s="122"/>
+      <c r="P73" s="122"/>
+      <c r="Q73" s="122"/>
+      <c r="R73" s="122"/>
+      <c r="S73" s="122"/>
+      <c r="T73" s="122"/>
+      <c r="U73" s="122"/>
+      <c r="V73" s="123"/>
       <c r="W73" s="9"/>
       <c r="X73" s="9"/>
       <c r="Y73" s="9"/>
@@ -9579,27 +9849,27 @@
     <row r="77" spans="1:46">
       <c r="A77" s="8"/>
       <c r="C77" s="46"/>
-      <c r="D77" s="111" t="s">
+      <c r="D77" s="118" t="s">
         <v>110</v>
       </c>
-      <c r="E77" s="112"/>
-      <c r="F77" s="112"/>
-      <c r="G77" s="112"/>
-      <c r="H77" s="112"/>
-      <c r="I77" s="112"/>
-      <c r="J77" s="112"/>
-      <c r="K77" s="112"/>
-      <c r="L77" s="112"/>
-      <c r="M77" s="112"/>
-      <c r="N77" s="112"/>
-      <c r="O77" s="112"/>
-      <c r="P77" s="112"/>
-      <c r="Q77" s="112"/>
-      <c r="R77" s="112"/>
-      <c r="S77" s="112"/>
-      <c r="T77" s="112"/>
-      <c r="U77" s="112"/>
-      <c r="V77" s="113"/>
+      <c r="E77" s="119"/>
+      <c r="F77" s="119"/>
+      <c r="G77" s="119"/>
+      <c r="H77" s="119"/>
+      <c r="I77" s="119"/>
+      <c r="J77" s="119"/>
+      <c r="K77" s="119"/>
+      <c r="L77" s="119"/>
+      <c r="M77" s="119"/>
+      <c r="N77" s="119"/>
+      <c r="O77" s="119"/>
+      <c r="P77" s="119"/>
+      <c r="Q77" s="119"/>
+      <c r="R77" s="119"/>
+      <c r="S77" s="119"/>
+      <c r="T77" s="119"/>
+      <c r="U77" s="119"/>
+      <c r="V77" s="120"/>
       <c r="W77" s="9"/>
       <c r="X77" s="9"/>
       <c r="Y77" s="9"/>
@@ -9825,28 +10095,28 @@
     <row r="82" spans="1:46">
       <c r="A82" s="8"/>
       <c r="B82" s="9"/>
-      <c r="C82" s="108" t="s">
+      <c r="C82" s="115" t="s">
         <v>115</v>
       </c>
-      <c r="D82" s="109"/>
-      <c r="E82" s="109"/>
-      <c r="F82" s="109"/>
-      <c r="G82" s="109"/>
-      <c r="H82" s="109"/>
-      <c r="I82" s="109"/>
-      <c r="J82" s="109"/>
-      <c r="K82" s="109"/>
-      <c r="L82" s="109"/>
-      <c r="M82" s="109"/>
-      <c r="N82" s="109"/>
-      <c r="O82" s="109"/>
-      <c r="P82" s="109"/>
-      <c r="Q82" s="109"/>
-      <c r="R82" s="109"/>
-      <c r="S82" s="109"/>
-      <c r="T82" s="109"/>
-      <c r="U82" s="109"/>
-      <c r="V82" s="110"/>
+      <c r="D82" s="116"/>
+      <c r="E82" s="116"/>
+      <c r="F82" s="116"/>
+      <c r="G82" s="116"/>
+      <c r="H82" s="116"/>
+      <c r="I82" s="116"/>
+      <c r="J82" s="116"/>
+      <c r="K82" s="116"/>
+      <c r="L82" s="116"/>
+      <c r="M82" s="116"/>
+      <c r="N82" s="116"/>
+      <c r="O82" s="116"/>
+      <c r="P82" s="116"/>
+      <c r="Q82" s="116"/>
+      <c r="R82" s="116"/>
+      <c r="S82" s="116"/>
+      <c r="T82" s="116"/>
+      <c r="U82" s="116"/>
+      <c r="V82" s="117"/>
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
       <c r="Y82" s="9"/>
@@ -9876,27 +10146,27 @@
       <c r="A83" s="8"/>
       <c r="B83" s="9"/>
       <c r="C83" s="41"/>
-      <c r="D83" s="102" t="s">
+      <c r="D83" s="112" t="s">
         <v>116</v>
       </c>
-      <c r="E83" s="103"/>
-      <c r="F83" s="103"/>
-      <c r="G83" s="103"/>
-      <c r="H83" s="103"/>
-      <c r="I83" s="103"/>
-      <c r="J83" s="103"/>
-      <c r="K83" s="103"/>
-      <c r="L83" s="103"/>
-      <c r="M83" s="103"/>
-      <c r="N83" s="103"/>
-      <c r="O83" s="103"/>
-      <c r="P83" s="103"/>
-      <c r="Q83" s="103"/>
-      <c r="R83" s="103"/>
-      <c r="S83" s="103"/>
-      <c r="T83" s="103"/>
-      <c r="U83" s="103"/>
-      <c r="V83" s="104"/>
+      <c r="E83" s="113"/>
+      <c r="F83" s="113"/>
+      <c r="G83" s="113"/>
+      <c r="H83" s="113"/>
+      <c r="I83" s="113"/>
+      <c r="J83" s="113"/>
+      <c r="K83" s="113"/>
+      <c r="L83" s="113"/>
+      <c r="M83" s="113"/>
+      <c r="N83" s="113"/>
+      <c r="O83" s="113"/>
+      <c r="P83" s="113"/>
+      <c r="Q83" s="113"/>
+      <c r="R83" s="113"/>
+      <c r="S83" s="113"/>
+      <c r="T83" s="113"/>
+      <c r="U83" s="113"/>
+      <c r="V83" s="114"/>
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
       <c r="Y83" s="9"/>
@@ -9926,27 +10196,27 @@
       <c r="A84" s="8"/>
       <c r="B84" s="9"/>
       <c r="C84" s="41"/>
-      <c r="D84" s="105" t="s">
+      <c r="D84" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="E84" s="106"/>
-      <c r="F84" s="106"/>
-      <c r="G84" s="106"/>
-      <c r="H84" s="106"/>
-      <c r="I84" s="106"/>
-      <c r="J84" s="106"/>
-      <c r="K84" s="106"/>
-      <c r="L84" s="106"/>
-      <c r="M84" s="106"/>
-      <c r="N84" s="106"/>
-      <c r="O84" s="106"/>
-      <c r="P84" s="106"/>
-      <c r="Q84" s="106"/>
-      <c r="R84" s="106"/>
-      <c r="S84" s="106"/>
-      <c r="T84" s="106"/>
-      <c r="U84" s="106"/>
-      <c r="V84" s="107"/>
+      <c r="E84" s="103"/>
+      <c r="F84" s="103"/>
+      <c r="G84" s="103"/>
+      <c r="H84" s="103"/>
+      <c r="I84" s="103"/>
+      <c r="J84" s="103"/>
+      <c r="K84" s="103"/>
+      <c r="L84" s="103"/>
+      <c r="M84" s="103"/>
+      <c r="N84" s="103"/>
+      <c r="O84" s="103"/>
+      <c r="P84" s="103"/>
+      <c r="Q84" s="103"/>
+      <c r="R84" s="103"/>
+      <c r="S84" s="103"/>
+      <c r="T84" s="103"/>
+      <c r="U84" s="103"/>
+      <c r="V84" s="104"/>
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
       <c r="Y84" s="9"/>
@@ -9976,27 +10246,27 @@
       <c r="A85" s="8"/>
       <c r="B85" s="9"/>
       <c r="C85" s="42"/>
-      <c r="D85" s="108" t="s">
+      <c r="D85" s="115" t="s">
         <v>117</v>
       </c>
-      <c r="E85" s="109"/>
-      <c r="F85" s="109"/>
-      <c r="G85" s="109"/>
-      <c r="H85" s="109"/>
-      <c r="I85" s="109"/>
-      <c r="J85" s="109"/>
-      <c r="K85" s="109"/>
-      <c r="L85" s="109"/>
-      <c r="M85" s="109"/>
-      <c r="N85" s="109"/>
-      <c r="O85" s="109"/>
-      <c r="P85" s="109"/>
-      <c r="Q85" s="109"/>
-      <c r="R85" s="109"/>
-      <c r="S85" s="109"/>
-      <c r="T85" s="109"/>
-      <c r="U85" s="109"/>
-      <c r="V85" s="110"/>
+      <c r="E85" s="116"/>
+      <c r="F85" s="116"/>
+      <c r="G85" s="116"/>
+      <c r="H85" s="116"/>
+      <c r="I85" s="116"/>
+      <c r="J85" s="116"/>
+      <c r="K85" s="116"/>
+      <c r="L85" s="116"/>
+      <c r="M85" s="116"/>
+      <c r="N85" s="116"/>
+      <c r="O85" s="116"/>
+      <c r="P85" s="116"/>
+      <c r="Q85" s="116"/>
+      <c r="R85" s="116"/>
+      <c r="S85" s="116"/>
+      <c r="T85" s="116"/>
+      <c r="U85" s="116"/>
+      <c r="V85" s="117"/>
       <c r="W85" s="9"/>
       <c r="X85" s="9"/>
       <c r="Y85" s="9"/>
@@ -10748,25 +11018,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:AK1"/>
-    <mergeCell ref="AL1:AT1"/>
-    <mergeCell ref="A2:I4"/>
-    <mergeCell ref="J2:AK4"/>
-    <mergeCell ref="AL2:AT2"/>
-    <mergeCell ref="AL3:AT3"/>
-    <mergeCell ref="AL4:AT4"/>
-    <mergeCell ref="C40:V40"/>
-    <mergeCell ref="D41:V41"/>
-    <mergeCell ref="D42:V42"/>
-    <mergeCell ref="D43:V43"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="K44:V44"/>
-    <mergeCell ref="C52:V52"/>
-    <mergeCell ref="D58:V58"/>
-    <mergeCell ref="D59:V59"/>
-    <mergeCell ref="D60:V60"/>
-    <mergeCell ref="D61:V61"/>
     <mergeCell ref="D62:V62"/>
     <mergeCell ref="D53:V53"/>
     <mergeCell ref="D83:V83"/>
@@ -10780,6 +11031,25 @@
     <mergeCell ref="D71:V71"/>
     <mergeCell ref="D72:V72"/>
     <mergeCell ref="D73:J73"/>
+    <mergeCell ref="C52:V52"/>
+    <mergeCell ref="D58:V58"/>
+    <mergeCell ref="D59:V59"/>
+    <mergeCell ref="D60:V60"/>
+    <mergeCell ref="D61:V61"/>
+    <mergeCell ref="C40:V40"/>
+    <mergeCell ref="D41:V41"/>
+    <mergeCell ref="D42:V42"/>
+    <mergeCell ref="D43:V43"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="K44:V44"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:AK1"/>
+    <mergeCell ref="AL1:AT1"/>
+    <mergeCell ref="A2:I4"/>
+    <mergeCell ref="J2:AK4"/>
+    <mergeCell ref="AL2:AT2"/>
+    <mergeCell ref="AL3:AT3"/>
+    <mergeCell ref="AL4:AT4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10802,212 +11072,212 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="73" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="73" t="s">
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="82"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="88"/>
     </row>
     <row r="2" spans="1:46" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="74" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="75"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="76"/>
-      <c r="AL2" s="86" t="s">
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="AM2" s="87"/>
-      <c r="AN2" s="87"/>
-      <c r="AO2" s="87"/>
-      <c r="AP2" s="87"/>
-      <c r="AQ2" s="87"/>
-      <c r="AR2" s="87"/>
-      <c r="AS2" s="87"/>
-      <c r="AT2" s="88"/>
+      <c r="AM2" s="91"/>
+      <c r="AN2" s="91"/>
+      <c r="AO2" s="91"/>
+      <c r="AP2" s="91"/>
+      <c r="AQ2" s="91"/>
+      <c r="AR2" s="91"/>
+      <c r="AS2" s="91"/>
+      <c r="AT2" s="92"/>
     </row>
     <row r="3" spans="1:46" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="75"/>
-      <c r="AH3" s="75"/>
-      <c r="AI3" s="75"/>
-      <c r="AJ3" s="75"/>
-      <c r="AK3" s="76"/>
-      <c r="AL3" s="83" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="83"/>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="84"/>
+      <c r="AL3" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="84"/>
-      <c r="AO3" s="84"/>
-      <c r="AP3" s="84"/>
-      <c r="AQ3" s="84"/>
-      <c r="AR3" s="84"/>
-      <c r="AS3" s="84"/>
-      <c r="AT3" s="85"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="64"/>
+      <c r="AQ3" s="64"/>
+      <c r="AR3" s="64"/>
+      <c r="AS3" s="64"/>
+      <c r="AT3" s="89"/>
     </row>
     <row r="4" spans="1:46" s="4" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="78"/>
-      <c r="AG4" s="78"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="78"/>
-      <c r="AJ4" s="78"/>
-      <c r="AK4" s="79"/>
-      <c r="AL4" s="89" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="86"/>
+      <c r="AD4" s="86"/>
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="86"/>
+      <c r="AK4" s="87"/>
+      <c r="AL4" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="90"/>
-      <c r="AO4" s="90"/>
-      <c r="AP4" s="90"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="90"/>
-      <c r="AS4" s="90"/>
-      <c r="AT4" s="91"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="94"/>
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="95"/>
     </row>
     <row r="5" spans="1:46">
       <c r="A5" s="3"/>
@@ -11460,250 +11730,250 @@
     </row>
     <row r="15" spans="1:46">
       <c r="A15" s="1"/>
-      <c r="B15" s="138" t="s">
+      <c r="B15" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="138"/>
-      <c r="D15" s="125" t="s">
+      <c r="C15" s="136"/>
+      <c r="D15" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="126"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="126"/>
-      <c r="N15" s="126"/>
-      <c r="O15" s="126"/>
-      <c r="P15" s="126"/>
-      <c r="Q15" s="126"/>
-      <c r="R15" s="126"/>
-      <c r="S15" s="126"/>
-      <c r="T15" s="126"/>
-      <c r="U15" s="126"/>
-      <c r="V15" s="126"/>
-      <c r="W15" s="127"/>
-      <c r="X15" s="138" t="s">
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="125"/>
+      <c r="O15" s="125"/>
+      <c r="P15" s="125"/>
+      <c r="Q15" s="125"/>
+      <c r="R15" s="125"/>
+      <c r="S15" s="125"/>
+      <c r="T15" s="125"/>
+      <c r="U15" s="125"/>
+      <c r="V15" s="125"/>
+      <c r="W15" s="126"/>
+      <c r="X15" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="Y15" s="138"/>
-      <c r="Z15" s="138"/>
-      <c r="AA15" s="138"/>
-      <c r="AB15" s="138"/>
-      <c r="AC15" s="138"/>
-      <c r="AD15" s="138"/>
-      <c r="AE15" s="138"/>
-      <c r="AF15" s="138"/>
-      <c r="AG15" s="138"/>
-      <c r="AH15" s="138"/>
-      <c r="AI15" s="138"/>
-      <c r="AJ15" s="138"/>
-      <c r="AK15" s="138"/>
-      <c r="AL15" s="138"/>
-      <c r="AM15" s="138"/>
-      <c r="AN15" s="138"/>
-      <c r="AO15" s="138"/>
-      <c r="AP15" s="138"/>
-      <c r="AQ15" s="125" t="s">
+      <c r="Y15" s="136"/>
+      <c r="Z15" s="136"/>
+      <c r="AA15" s="136"/>
+      <c r="AB15" s="136"/>
+      <c r="AC15" s="136"/>
+      <c r="AD15" s="136"/>
+      <c r="AE15" s="136"/>
+      <c r="AF15" s="136"/>
+      <c r="AG15" s="136"/>
+      <c r="AH15" s="136"/>
+      <c r="AI15" s="136"/>
+      <c r="AJ15" s="136"/>
+      <c r="AK15" s="136"/>
+      <c r="AL15" s="136"/>
+      <c r="AM15" s="136"/>
+      <c r="AN15" s="136"/>
+      <c r="AO15" s="136"/>
+      <c r="AP15" s="136"/>
+      <c r="AQ15" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="AR15" s="126"/>
-      <c r="AS15" s="127"/>
+      <c r="AR15" s="125"/>
+      <c r="AS15" s="126"/>
       <c r="AT15" s="51"/>
     </row>
     <row r="16" spans="1:46">
       <c r="A16" s="1"/>
-      <c r="B16" s="139"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="129"/>
-      <c r="M16" s="129"/>
-      <c r="N16" s="129"/>
-      <c r="O16" s="129"/>
-      <c r="P16" s="129"/>
-      <c r="Q16" s="129"/>
-      <c r="R16" s="129"/>
-      <c r="S16" s="129"/>
-      <c r="T16" s="129"/>
-      <c r="U16" s="129"/>
-      <c r="V16" s="129"/>
-      <c r="W16" s="130"/>
-      <c r="X16" s="140"/>
-      <c r="Y16" s="140"/>
-      <c r="Z16" s="140"/>
-      <c r="AA16" s="140"/>
-      <c r="AB16" s="140"/>
-      <c r="AC16" s="140"/>
-      <c r="AD16" s="140"/>
-      <c r="AE16" s="140"/>
-      <c r="AF16" s="140"/>
-      <c r="AG16" s="140"/>
-      <c r="AH16" s="140"/>
-      <c r="AI16" s="140"/>
-      <c r="AJ16" s="140"/>
-      <c r="AK16" s="140"/>
-      <c r="AL16" s="140"/>
-      <c r="AM16" s="140"/>
-      <c r="AN16" s="140"/>
-      <c r="AO16" s="140"/>
-      <c r="AP16" s="140"/>
-      <c r="AQ16" s="143"/>
-      <c r="AR16" s="144"/>
-      <c r="AS16" s="145"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
+      <c r="M16" s="142"/>
+      <c r="N16" s="142"/>
+      <c r="O16" s="142"/>
+      <c r="P16" s="142"/>
+      <c r="Q16" s="142"/>
+      <c r="R16" s="142"/>
+      <c r="S16" s="142"/>
+      <c r="T16" s="142"/>
+      <c r="U16" s="142"/>
+      <c r="V16" s="142"/>
+      <c r="W16" s="143"/>
+      <c r="X16" s="137"/>
+      <c r="Y16" s="137"/>
+      <c r="Z16" s="137"/>
+      <c r="AA16" s="137"/>
+      <c r="AB16" s="137"/>
+      <c r="AC16" s="137"/>
+      <c r="AD16" s="137"/>
+      <c r="AE16" s="137"/>
+      <c r="AF16" s="137"/>
+      <c r="AG16" s="137"/>
+      <c r="AH16" s="137"/>
+      <c r="AI16" s="137"/>
+      <c r="AJ16" s="137"/>
+      <c r="AK16" s="137"/>
+      <c r="AL16" s="137"/>
+      <c r="AM16" s="137"/>
+      <c r="AN16" s="137"/>
+      <c r="AO16" s="137"/>
+      <c r="AP16" s="137"/>
+      <c r="AQ16" s="127"/>
+      <c r="AR16" s="128"/>
+      <c r="AS16" s="129"/>
       <c r="AT16" s="51"/>
     </row>
     <row r="17" spans="1:46">
       <c r="A17" s="1"/>
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="132"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="132"/>
-      <c r="P17" s="132"/>
-      <c r="Q17" s="132"/>
-      <c r="R17" s="132"/>
-      <c r="S17" s="132"/>
-      <c r="T17" s="132"/>
-      <c r="U17" s="132"/>
-      <c r="V17" s="132"/>
-      <c r="W17" s="133"/>
-      <c r="X17" s="141"/>
-      <c r="Y17" s="141"/>
-      <c r="Z17" s="141"/>
-      <c r="AA17" s="141"/>
-      <c r="AB17" s="141"/>
-      <c r="AC17" s="141"/>
-      <c r="AD17" s="141"/>
-      <c r="AE17" s="141"/>
-      <c r="AF17" s="141"/>
-      <c r="AG17" s="141"/>
-      <c r="AH17" s="141"/>
-      <c r="AI17" s="141"/>
-      <c r="AJ17" s="141"/>
-      <c r="AK17" s="141"/>
-      <c r="AL17" s="141"/>
-      <c r="AM17" s="141"/>
-      <c r="AN17" s="141"/>
-      <c r="AO17" s="141"/>
-      <c r="AP17" s="141"/>
-      <c r="AQ17" s="146"/>
-      <c r="AR17" s="147"/>
-      <c r="AS17" s="148"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="145"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="145"/>
+      <c r="M17" s="145"/>
+      <c r="N17" s="145"/>
+      <c r="O17" s="145"/>
+      <c r="P17" s="145"/>
+      <c r="Q17" s="145"/>
+      <c r="R17" s="145"/>
+      <c r="S17" s="145"/>
+      <c r="T17" s="145"/>
+      <c r="U17" s="145"/>
+      <c r="V17" s="145"/>
+      <c r="W17" s="146"/>
+      <c r="X17" s="138"/>
+      <c r="Y17" s="138"/>
+      <c r="Z17" s="138"/>
+      <c r="AA17" s="138"/>
+      <c r="AB17" s="138"/>
+      <c r="AC17" s="138"/>
+      <c r="AD17" s="138"/>
+      <c r="AE17" s="138"/>
+      <c r="AF17" s="138"/>
+      <c r="AG17" s="138"/>
+      <c r="AH17" s="138"/>
+      <c r="AI17" s="138"/>
+      <c r="AJ17" s="138"/>
+      <c r="AK17" s="138"/>
+      <c r="AL17" s="138"/>
+      <c r="AM17" s="138"/>
+      <c r="AN17" s="138"/>
+      <c r="AO17" s="138"/>
+      <c r="AP17" s="138"/>
+      <c r="AQ17" s="130"/>
+      <c r="AR17" s="131"/>
+      <c r="AS17" s="132"/>
       <c r="AT17" s="51"/>
     </row>
     <row r="18" spans="1:46">
       <c r="A18" s="1"/>
-      <c r="B18" s="137"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="132"/>
-      <c r="K18" s="132"/>
-      <c r="L18" s="132"/>
-      <c r="M18" s="132"/>
-      <c r="N18" s="132"/>
-      <c r="O18" s="132"/>
-      <c r="P18" s="132"/>
-      <c r="Q18" s="132"/>
-      <c r="R18" s="132"/>
-      <c r="S18" s="132"/>
-      <c r="T18" s="132"/>
-      <c r="U18" s="132"/>
-      <c r="V18" s="132"/>
-      <c r="W18" s="133"/>
-      <c r="X18" s="141"/>
-      <c r="Y18" s="141"/>
-      <c r="Z18" s="141"/>
-      <c r="AA18" s="141"/>
-      <c r="AB18" s="141"/>
-      <c r="AC18" s="141"/>
-      <c r="AD18" s="141"/>
-      <c r="AE18" s="141"/>
-      <c r="AF18" s="141"/>
-      <c r="AG18" s="141"/>
-      <c r="AH18" s="141"/>
-      <c r="AI18" s="141"/>
-      <c r="AJ18" s="141"/>
-      <c r="AK18" s="141"/>
-      <c r="AL18" s="141"/>
-      <c r="AM18" s="141"/>
-      <c r="AN18" s="141"/>
-      <c r="AO18" s="141"/>
-      <c r="AP18" s="141"/>
-      <c r="AQ18" s="146"/>
-      <c r="AR18" s="147"/>
-      <c r="AS18" s="148"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="145"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="145"/>
+      <c r="M18" s="145"/>
+      <c r="N18" s="145"/>
+      <c r="O18" s="145"/>
+      <c r="P18" s="145"/>
+      <c r="Q18" s="145"/>
+      <c r="R18" s="145"/>
+      <c r="S18" s="145"/>
+      <c r="T18" s="145"/>
+      <c r="U18" s="145"/>
+      <c r="V18" s="145"/>
+      <c r="W18" s="146"/>
+      <c r="X18" s="138"/>
+      <c r="Y18" s="138"/>
+      <c r="Z18" s="138"/>
+      <c r="AA18" s="138"/>
+      <c r="AB18" s="138"/>
+      <c r="AC18" s="138"/>
+      <c r="AD18" s="138"/>
+      <c r="AE18" s="138"/>
+      <c r="AF18" s="138"/>
+      <c r="AG18" s="138"/>
+      <c r="AH18" s="138"/>
+      <c r="AI18" s="138"/>
+      <c r="AJ18" s="138"/>
+      <c r="AK18" s="138"/>
+      <c r="AL18" s="138"/>
+      <c r="AM18" s="138"/>
+      <c r="AN18" s="138"/>
+      <c r="AO18" s="138"/>
+      <c r="AP18" s="138"/>
+      <c r="AQ18" s="130"/>
+      <c r="AR18" s="131"/>
+      <c r="AS18" s="132"/>
       <c r="AT18" s="51"/>
     </row>
     <row r="19" spans="1:46">
       <c r="A19" s="1"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="135"/>
-      <c r="L19" s="135"/>
-      <c r="M19" s="135"/>
-      <c r="N19" s="135"/>
-      <c r="O19" s="135"/>
-      <c r="P19" s="135"/>
-      <c r="Q19" s="135"/>
-      <c r="R19" s="135"/>
-      <c r="S19" s="135"/>
-      <c r="T19" s="135"/>
-      <c r="U19" s="135"/>
-      <c r="V19" s="135"/>
-      <c r="W19" s="136"/>
-      <c r="X19" s="142"/>
-      <c r="Y19" s="142"/>
-      <c r="Z19" s="142"/>
-      <c r="AA19" s="142"/>
-      <c r="AB19" s="142"/>
-      <c r="AC19" s="142"/>
-      <c r="AD19" s="142"/>
-      <c r="AE19" s="142"/>
-      <c r="AF19" s="142"/>
-      <c r="AG19" s="142"/>
-      <c r="AH19" s="142"/>
-      <c r="AI19" s="142"/>
-      <c r="AJ19" s="142"/>
-      <c r="AK19" s="142"/>
-      <c r="AL19" s="142"/>
-      <c r="AM19" s="142"/>
-      <c r="AN19" s="142"/>
-      <c r="AO19" s="142"/>
-      <c r="AP19" s="142"/>
-      <c r="AQ19" s="149"/>
-      <c r="AR19" s="150"/>
-      <c r="AS19" s="151"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="148"/>
+      <c r="N19" s="148"/>
+      <c r="O19" s="148"/>
+      <c r="P19" s="148"/>
+      <c r="Q19" s="148"/>
+      <c r="R19" s="148"/>
+      <c r="S19" s="148"/>
+      <c r="T19" s="148"/>
+      <c r="U19" s="148"/>
+      <c r="V19" s="148"/>
+      <c r="W19" s="149"/>
+      <c r="X19" s="139"/>
+      <c r="Y19" s="139"/>
+      <c r="Z19" s="139"/>
+      <c r="AA19" s="139"/>
+      <c r="AB19" s="139"/>
+      <c r="AC19" s="139"/>
+      <c r="AD19" s="139"/>
+      <c r="AE19" s="139"/>
+      <c r="AF19" s="139"/>
+      <c r="AG19" s="139"/>
+      <c r="AH19" s="139"/>
+      <c r="AI19" s="139"/>
+      <c r="AJ19" s="139"/>
+      <c r="AK19" s="139"/>
+      <c r="AL19" s="139"/>
+      <c r="AM19" s="139"/>
+      <c r="AN19" s="139"/>
+      <c r="AO19" s="139"/>
+      <c r="AP19" s="139"/>
+      <c r="AQ19" s="133"/>
+      <c r="AR19" s="134"/>
+      <c r="AS19" s="135"/>
       <c r="AT19" s="51"/>
     </row>
     <row r="20" spans="1:46">
@@ -12052,16 +12322,14 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="AQ15:AS15"/>
-    <mergeCell ref="AQ16:AS16"/>
-    <mergeCell ref="AQ17:AS17"/>
-    <mergeCell ref="AQ18:AS18"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="X15:AP15"/>
-    <mergeCell ref="X16:AP16"/>
-    <mergeCell ref="X17:AP17"/>
-    <mergeCell ref="X18:AP18"/>
-    <mergeCell ref="X19:AP19"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:AK1"/>
+    <mergeCell ref="AL1:AT1"/>
+    <mergeCell ref="A2:I4"/>
+    <mergeCell ref="J2:AK4"/>
+    <mergeCell ref="AL2:AT2"/>
+    <mergeCell ref="AL3:AT3"/>
+    <mergeCell ref="AL4:AT4"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D15:W15"/>
     <mergeCell ref="D16:W16"/>
@@ -12072,14 +12340,16 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:AK1"/>
-    <mergeCell ref="AL1:AT1"/>
-    <mergeCell ref="A2:I4"/>
-    <mergeCell ref="J2:AK4"/>
-    <mergeCell ref="AL2:AT2"/>
-    <mergeCell ref="AL3:AT3"/>
-    <mergeCell ref="AL4:AT4"/>
+    <mergeCell ref="X15:AP15"/>
+    <mergeCell ref="X16:AP16"/>
+    <mergeCell ref="X17:AP17"/>
+    <mergeCell ref="X18:AP18"/>
+    <mergeCell ref="X19:AP19"/>
+    <mergeCell ref="AQ15:AS15"/>
+    <mergeCell ref="AQ16:AS16"/>
+    <mergeCell ref="AQ17:AS17"/>
+    <mergeCell ref="AQ18:AS18"/>
+    <mergeCell ref="AQ19:AS19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12102,212 +12372,212 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="73" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="73" t="s">
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="82"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="88"/>
     </row>
     <row r="2" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="161" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="74" t="s">
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="75"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="76"/>
-      <c r="AL2" s="158">
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="167">
         <v>43617</v>
       </c>
-      <c r="AM2" s="159"/>
-      <c r="AN2" s="159"/>
-      <c r="AO2" s="159"/>
-      <c r="AP2" s="159"/>
-      <c r="AQ2" s="159"/>
-      <c r="AR2" s="159"/>
-      <c r="AS2" s="159"/>
-      <c r="AT2" s="160"/>
+      <c r="AM2" s="168"/>
+      <c r="AN2" s="168"/>
+      <c r="AO2" s="168"/>
+      <c r="AP2" s="168"/>
+      <c r="AQ2" s="168"/>
+      <c r="AR2" s="168"/>
+      <c r="AS2" s="168"/>
+      <c r="AT2" s="169"/>
     </row>
     <row r="3" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A3" s="152"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="75"/>
-      <c r="AH3" s="75"/>
-      <c r="AI3" s="75"/>
-      <c r="AJ3" s="75"/>
-      <c r="AK3" s="76"/>
-      <c r="AL3" s="83" t="s">
+      <c r="A3" s="161"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="83"/>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="84"/>
+      <c r="AL3" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="84"/>
-      <c r="AO3" s="84"/>
-      <c r="AP3" s="84"/>
-      <c r="AQ3" s="84"/>
-      <c r="AR3" s="84"/>
-      <c r="AS3" s="84"/>
-      <c r="AT3" s="85"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="64"/>
+      <c r="AQ3" s="64"/>
+      <c r="AR3" s="64"/>
+      <c r="AS3" s="64"/>
+      <c r="AT3" s="89"/>
     </row>
     <row r="4" spans="1:46" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A4" s="155"/>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="78"/>
-      <c r="AG4" s="78"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="78"/>
-      <c r="AJ4" s="78"/>
-      <c r="AK4" s="79"/>
-      <c r="AL4" s="161" t="s">
+      <c r="A4" s="164"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="86"/>
+      <c r="AD4" s="86"/>
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="86"/>
+      <c r="AK4" s="87"/>
+      <c r="AL4" s="170" t="s">
         <v>122</v>
       </c>
-      <c r="AM4" s="162"/>
-      <c r="AN4" s="162"/>
-      <c r="AO4" s="162"/>
-      <c r="AP4" s="162"/>
-      <c r="AQ4" s="162"/>
-      <c r="AR4" s="162"/>
-      <c r="AS4" s="162"/>
-      <c r="AT4" s="163"/>
+      <c r="AM4" s="171"/>
+      <c r="AN4" s="171"/>
+      <c r="AO4" s="171"/>
+      <c r="AP4" s="171"/>
+      <c r="AQ4" s="171"/>
+      <c r="AR4" s="171"/>
+      <c r="AS4" s="171"/>
+      <c r="AT4" s="172"/>
     </row>
     <row r="6" spans="1:46">
       <c r="A6" s="29" t="s">
@@ -13577,497 +13847,497 @@
     </row>
     <row r="32" spans="1:47">
       <c r="A32" s="8"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94" t="s">
+      <c r="C32" s="62"/>
+      <c r="D32" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94" t="s">
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="M32" s="94"/>
-      <c r="N32" s="94"/>
-      <c r="O32" s="94"/>
-      <c r="P32" s="94" t="s">
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="Q32" s="94"/>
-      <c r="R32" s="94"/>
-      <c r="S32" s="94"/>
-      <c r="T32" s="94" t="s">
+      <c r="Q32" s="62"/>
+      <c r="R32" s="62"/>
+      <c r="S32" s="62"/>
+      <c r="T32" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="U32" s="94"/>
-      <c r="V32" s="94"/>
-      <c r="W32" s="94"/>
-      <c r="X32" s="94" t="s">
+      <c r="U32" s="62"/>
+      <c r="V32" s="62"/>
+      <c r="W32" s="62"/>
+      <c r="X32" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="Y32" s="94"/>
-      <c r="Z32" s="94"/>
-      <c r="AA32" s="94"/>
-      <c r="AB32" s="83" t="s">
+      <c r="Y32" s="62"/>
+      <c r="Z32" s="62"/>
+      <c r="AA32" s="62"/>
+      <c r="AB32" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="AC32" s="84"/>
-      <c r="AD32" s="84"/>
-      <c r="AE32" s="84"/>
-      <c r="AF32" s="84"/>
-      <c r="AG32" s="84"/>
-      <c r="AH32" s="84"/>
-      <c r="AI32" s="84"/>
-      <c r="AJ32" s="84"/>
-      <c r="AK32" s="84"/>
-      <c r="AL32" s="84"/>
-      <c r="AM32" s="84"/>
-      <c r="AN32" s="84"/>
-      <c r="AO32" s="84"/>
-      <c r="AP32" s="84"/>
-      <c r="AQ32" s="84"/>
-      <c r="AR32" s="84"/>
-      <c r="AS32" s="95"/>
+      <c r="AC32" s="64"/>
+      <c r="AD32" s="64"/>
+      <c r="AE32" s="64"/>
+      <c r="AF32" s="64"/>
+      <c r="AG32" s="64"/>
+      <c r="AH32" s="64"/>
+      <c r="AI32" s="64"/>
+      <c r="AJ32" s="64"/>
+      <c r="AK32" s="64"/>
+      <c r="AL32" s="64"/>
+      <c r="AM32" s="64"/>
+      <c r="AN32" s="64"/>
+      <c r="AO32" s="64"/>
+      <c r="AP32" s="64"/>
+      <c r="AQ32" s="64"/>
+      <c r="AR32" s="64"/>
+      <c r="AS32" s="65"/>
       <c r="AU32" s="8"/>
     </row>
     <row r="33" spans="1:47" ht="18.75" customHeight="1">
       <c r="A33" s="8"/>
-      <c r="B33" s="80">
+      <c r="B33" s="70">
         <f>ROW()-32</f>
         <v>1</v>
       </c>
-      <c r="C33" s="80"/>
-      <c r="D33" s="92" t="s">
+      <c r="C33" s="70"/>
+      <c r="D33" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="80" t="s">
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="M33" s="80"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="80" t="s">
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="Q33" s="80"/>
-      <c r="R33" s="80"/>
-      <c r="S33" s="80"/>
-      <c r="T33" s="80" t="s">
+      <c r="Q33" s="70"/>
+      <c r="R33" s="70"/>
+      <c r="S33" s="70"/>
+      <c r="T33" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="U33" s="80"/>
-      <c r="V33" s="80"/>
-      <c r="W33" s="80"/>
-      <c r="X33" s="80" t="s">
+      <c r="U33" s="70"/>
+      <c r="V33" s="70"/>
+      <c r="W33" s="70"/>
+      <c r="X33" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="Y33" s="80"/>
-      <c r="Z33" s="80"/>
-      <c r="AA33" s="80"/>
-      <c r="AB33" s="170" t="s">
+      <c r="Y33" s="70"/>
+      <c r="Z33" s="70"/>
+      <c r="AA33" s="70"/>
+      <c r="AB33" s="158" t="s">
         <v>47</v>
       </c>
-      <c r="AC33" s="171"/>
-      <c r="AD33" s="171"/>
-      <c r="AE33" s="171"/>
-      <c r="AF33" s="171"/>
-      <c r="AG33" s="171"/>
-      <c r="AH33" s="171"/>
-      <c r="AI33" s="171"/>
-      <c r="AJ33" s="171"/>
-      <c r="AK33" s="171"/>
-      <c r="AL33" s="171"/>
-      <c r="AM33" s="171"/>
-      <c r="AN33" s="171"/>
-      <c r="AO33" s="171"/>
-      <c r="AP33" s="171"/>
-      <c r="AQ33" s="171"/>
-      <c r="AR33" s="171"/>
-      <c r="AS33" s="172"/>
+      <c r="AC33" s="159"/>
+      <c r="AD33" s="159"/>
+      <c r="AE33" s="159"/>
+      <c r="AF33" s="159"/>
+      <c r="AG33" s="159"/>
+      <c r="AH33" s="159"/>
+      <c r="AI33" s="159"/>
+      <c r="AJ33" s="159"/>
+      <c r="AK33" s="159"/>
+      <c r="AL33" s="159"/>
+      <c r="AM33" s="159"/>
+      <c r="AN33" s="159"/>
+      <c r="AO33" s="159"/>
+      <c r="AP33" s="159"/>
+      <c r="AQ33" s="159"/>
+      <c r="AR33" s="159"/>
+      <c r="AS33" s="160"/>
       <c r="AU33" s="8"/>
     </row>
     <row r="34" spans="1:47" ht="18.75" customHeight="1">
       <c r="A34" s="8"/>
-      <c r="B34" s="81">
+      <c r="B34" s="69">
         <f t="shared" ref="B34:B39" si="0">ROW()-32</f>
         <v>2</v>
       </c>
-      <c r="C34" s="81"/>
-      <c r="D34" s="62" t="s">
+      <c r="C34" s="69"/>
+      <c r="D34" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="81" t="s">
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="M34" s="81"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="81"/>
-      <c r="P34" s="81" t="s">
+      <c r="M34" s="69"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="Q34" s="81"/>
-      <c r="R34" s="81"/>
-      <c r="S34" s="81"/>
-      <c r="T34" s="81">
+      <c r="Q34" s="69"/>
+      <c r="R34" s="69"/>
+      <c r="S34" s="69"/>
+      <c r="T34" s="69">
         <v>3</v>
       </c>
-      <c r="U34" s="81"/>
-      <c r="V34" s="81"/>
-      <c r="W34" s="81"/>
-      <c r="X34" s="81" t="s">
+      <c r="U34" s="69"/>
+      <c r="V34" s="69"/>
+      <c r="W34" s="69"/>
+      <c r="X34" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="Y34" s="81"/>
-      <c r="Z34" s="81"/>
-      <c r="AA34" s="81"/>
-      <c r="AB34" s="164"/>
-      <c r="AC34" s="165"/>
-      <c r="AD34" s="165"/>
-      <c r="AE34" s="165"/>
-      <c r="AF34" s="165"/>
-      <c r="AG34" s="165"/>
-      <c r="AH34" s="165"/>
-      <c r="AI34" s="165"/>
-      <c r="AJ34" s="165"/>
-      <c r="AK34" s="165"/>
-      <c r="AL34" s="165"/>
-      <c r="AM34" s="165"/>
-      <c r="AN34" s="165"/>
-      <c r="AO34" s="165"/>
-      <c r="AP34" s="165"/>
-      <c r="AQ34" s="165"/>
-      <c r="AR34" s="165"/>
-      <c r="AS34" s="166"/>
+      <c r="Y34" s="69"/>
+      <c r="Z34" s="69"/>
+      <c r="AA34" s="69"/>
+      <c r="AB34" s="152"/>
+      <c r="AC34" s="153"/>
+      <c r="AD34" s="153"/>
+      <c r="AE34" s="153"/>
+      <c r="AF34" s="153"/>
+      <c r="AG34" s="153"/>
+      <c r="AH34" s="153"/>
+      <c r="AI34" s="153"/>
+      <c r="AJ34" s="153"/>
+      <c r="AK34" s="153"/>
+      <c r="AL34" s="153"/>
+      <c r="AM34" s="153"/>
+      <c r="AN34" s="153"/>
+      <c r="AO34" s="153"/>
+      <c r="AP34" s="153"/>
+      <c r="AQ34" s="153"/>
+      <c r="AR34" s="153"/>
+      <c r="AS34" s="154"/>
       <c r="AU34" s="8"/>
     </row>
     <row r="35" spans="1:47">
       <c r="A35" s="8"/>
-      <c r="B35" s="81">
+      <c r="B35" s="69">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C35" s="81"/>
-      <c r="D35" s="62" t="s">
+      <c r="C35" s="69"/>
+      <c r="D35" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="81" t="s">
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="M35" s="81"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="81"/>
-      <c r="P35" s="81" t="s">
+      <c r="M35" s="69"/>
+      <c r="N35" s="69"/>
+      <c r="O35" s="69"/>
+      <c r="P35" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="Q35" s="81"/>
-      <c r="R35" s="81"/>
-      <c r="S35" s="81"/>
-      <c r="T35" s="81">
+      <c r="Q35" s="69"/>
+      <c r="R35" s="69"/>
+      <c r="S35" s="69"/>
+      <c r="T35" s="69">
         <v>20</v>
       </c>
-      <c r="U35" s="81"/>
-      <c r="V35" s="81"/>
-      <c r="W35" s="81"/>
-      <c r="X35" s="81" t="s">
+      <c r="U35" s="69"/>
+      <c r="V35" s="69"/>
+      <c r="W35" s="69"/>
+      <c r="X35" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="Y35" s="81"/>
-      <c r="Z35" s="81"/>
-      <c r="AA35" s="81"/>
-      <c r="AB35" s="164"/>
-      <c r="AC35" s="165"/>
-      <c r="AD35" s="165"/>
-      <c r="AE35" s="165"/>
-      <c r="AF35" s="165"/>
-      <c r="AG35" s="165"/>
-      <c r="AH35" s="165"/>
-      <c r="AI35" s="165"/>
-      <c r="AJ35" s="165"/>
-      <c r="AK35" s="165"/>
-      <c r="AL35" s="165"/>
-      <c r="AM35" s="165"/>
-      <c r="AN35" s="165"/>
-      <c r="AO35" s="165"/>
-      <c r="AP35" s="165"/>
-      <c r="AQ35" s="165"/>
-      <c r="AR35" s="165"/>
-      <c r="AS35" s="166"/>
+      <c r="Y35" s="69"/>
+      <c r="Z35" s="69"/>
+      <c r="AA35" s="69"/>
+      <c r="AB35" s="152"/>
+      <c r="AC35" s="153"/>
+      <c r="AD35" s="153"/>
+      <c r="AE35" s="153"/>
+      <c r="AF35" s="153"/>
+      <c r="AG35" s="153"/>
+      <c r="AH35" s="153"/>
+      <c r="AI35" s="153"/>
+      <c r="AJ35" s="153"/>
+      <c r="AK35" s="153"/>
+      <c r="AL35" s="153"/>
+      <c r="AM35" s="153"/>
+      <c r="AN35" s="153"/>
+      <c r="AO35" s="153"/>
+      <c r="AP35" s="153"/>
+      <c r="AQ35" s="153"/>
+      <c r="AR35" s="153"/>
+      <c r="AS35" s="154"/>
       <c r="AU35" s="8"/>
     </row>
     <row r="36" spans="1:47">
       <c r="A36" s="8"/>
-      <c r="B36" s="81">
+      <c r="B36" s="69">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C36" s="81"/>
-      <c r="D36" s="62" t="s">
+      <c r="C36" s="69"/>
+      <c r="D36" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="81" t="s">
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="M36" s="81"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="81"/>
-      <c r="P36" s="81" t="s">
+      <c r="M36" s="69"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="69"/>
+      <c r="P36" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="Q36" s="81"/>
-      <c r="R36" s="81"/>
-      <c r="S36" s="81"/>
-      <c r="T36" s="81">
+      <c r="Q36" s="69"/>
+      <c r="R36" s="69"/>
+      <c r="S36" s="69"/>
+      <c r="T36" s="69">
         <v>3</v>
       </c>
-      <c r="U36" s="81"/>
-      <c r="V36" s="81"/>
-      <c r="W36" s="81"/>
-      <c r="X36" s="81" t="s">
+      <c r="U36" s="69"/>
+      <c r="V36" s="69"/>
+      <c r="W36" s="69"/>
+      <c r="X36" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="Y36" s="81"/>
-      <c r="Z36" s="81"/>
-      <c r="AA36" s="81"/>
-      <c r="AB36" s="164"/>
-      <c r="AC36" s="165"/>
-      <c r="AD36" s="165"/>
-      <c r="AE36" s="165"/>
-      <c r="AF36" s="165"/>
-      <c r="AG36" s="165"/>
-      <c r="AH36" s="165"/>
-      <c r="AI36" s="165"/>
-      <c r="AJ36" s="165"/>
-      <c r="AK36" s="165"/>
-      <c r="AL36" s="165"/>
-      <c r="AM36" s="165"/>
-      <c r="AN36" s="165"/>
-      <c r="AO36" s="165"/>
-      <c r="AP36" s="165"/>
-      <c r="AQ36" s="165"/>
-      <c r="AR36" s="165"/>
-      <c r="AS36" s="166"/>
+      <c r="Y36" s="69"/>
+      <c r="Z36" s="69"/>
+      <c r="AA36" s="69"/>
+      <c r="AB36" s="152"/>
+      <c r="AC36" s="153"/>
+      <c r="AD36" s="153"/>
+      <c r="AE36" s="153"/>
+      <c r="AF36" s="153"/>
+      <c r="AG36" s="153"/>
+      <c r="AH36" s="153"/>
+      <c r="AI36" s="153"/>
+      <c r="AJ36" s="153"/>
+      <c r="AK36" s="153"/>
+      <c r="AL36" s="153"/>
+      <c r="AM36" s="153"/>
+      <c r="AN36" s="153"/>
+      <c r="AO36" s="153"/>
+      <c r="AP36" s="153"/>
+      <c r="AQ36" s="153"/>
+      <c r="AR36" s="153"/>
+      <c r="AS36" s="154"/>
       <c r="AU36" s="8"/>
     </row>
     <row r="37" spans="1:47">
       <c r="A37" s="8"/>
-      <c r="B37" s="81">
+      <c r="B37" s="69">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C37" s="81"/>
-      <c r="D37" s="62" t="s">
+      <c r="C37" s="69"/>
+      <c r="D37" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="81" t="s">
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="M37" s="81"/>
-      <c r="N37" s="81"/>
-      <c r="O37" s="81"/>
-      <c r="P37" s="81" t="s">
+      <c r="M37" s="69"/>
+      <c r="N37" s="69"/>
+      <c r="O37" s="69"/>
+      <c r="P37" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="Q37" s="81"/>
-      <c r="R37" s="81"/>
-      <c r="S37" s="81"/>
-      <c r="T37" s="81">
+      <c r="Q37" s="69"/>
+      <c r="R37" s="69"/>
+      <c r="S37" s="69"/>
+      <c r="T37" s="69">
         <v>50</v>
       </c>
-      <c r="U37" s="81"/>
-      <c r="V37" s="81"/>
-      <c r="W37" s="81"/>
-      <c r="X37" s="81" t="s">
+      <c r="U37" s="69"/>
+      <c r="V37" s="69"/>
+      <c r="W37" s="69"/>
+      <c r="X37" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="Y37" s="81"/>
-      <c r="Z37" s="81"/>
-      <c r="AA37" s="81"/>
-      <c r="AB37" s="164"/>
-      <c r="AC37" s="165"/>
-      <c r="AD37" s="165"/>
-      <c r="AE37" s="165"/>
-      <c r="AF37" s="165"/>
-      <c r="AG37" s="165"/>
-      <c r="AH37" s="165"/>
-      <c r="AI37" s="165"/>
-      <c r="AJ37" s="165"/>
-      <c r="AK37" s="165"/>
-      <c r="AL37" s="165"/>
-      <c r="AM37" s="165"/>
-      <c r="AN37" s="165"/>
-      <c r="AO37" s="165"/>
-      <c r="AP37" s="165"/>
-      <c r="AQ37" s="165"/>
-      <c r="AR37" s="165"/>
-      <c r="AS37" s="166"/>
+      <c r="Y37" s="69"/>
+      <c r="Z37" s="69"/>
+      <c r="AA37" s="69"/>
+      <c r="AB37" s="152"/>
+      <c r="AC37" s="153"/>
+      <c r="AD37" s="153"/>
+      <c r="AE37" s="153"/>
+      <c r="AF37" s="153"/>
+      <c r="AG37" s="153"/>
+      <c r="AH37" s="153"/>
+      <c r="AI37" s="153"/>
+      <c r="AJ37" s="153"/>
+      <c r="AK37" s="153"/>
+      <c r="AL37" s="153"/>
+      <c r="AM37" s="153"/>
+      <c r="AN37" s="153"/>
+      <c r="AO37" s="153"/>
+      <c r="AP37" s="153"/>
+      <c r="AQ37" s="153"/>
+      <c r="AR37" s="153"/>
+      <c r="AS37" s="154"/>
       <c r="AU37" s="8"/>
     </row>
     <row r="38" spans="1:47" ht="18.75" customHeight="1">
       <c r="A38" s="8"/>
-      <c r="B38" s="81">
+      <c r="B38" s="69">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C38" s="81"/>
-      <c r="D38" s="62" t="s">
+      <c r="C38" s="69"/>
+      <c r="D38" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="81" t="s">
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="M38" s="81"/>
-      <c r="N38" s="81"/>
-      <c r="O38" s="81"/>
-      <c r="P38" s="81" t="s">
+      <c r="M38" s="69"/>
+      <c r="N38" s="69"/>
+      <c r="O38" s="69"/>
+      <c r="P38" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="Q38" s="81"/>
-      <c r="R38" s="81"/>
-      <c r="S38" s="81"/>
-      <c r="T38" s="81" t="s">
+      <c r="Q38" s="69"/>
+      <c r="R38" s="69"/>
+      <c r="S38" s="69"/>
+      <c r="T38" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="U38" s="81"/>
-      <c r="V38" s="81"/>
-      <c r="W38" s="81"/>
-      <c r="X38" s="81" t="s">
+      <c r="U38" s="69"/>
+      <c r="V38" s="69"/>
+      <c r="W38" s="69"/>
+      <c r="X38" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="Y38" s="81"/>
-      <c r="Z38" s="81"/>
-      <c r="AA38" s="81"/>
-      <c r="AB38" s="164" t="s">
+      <c r="Y38" s="69"/>
+      <c r="Z38" s="69"/>
+      <c r="AA38" s="69"/>
+      <c r="AB38" s="152" t="s">
         <v>77</v>
       </c>
-      <c r="AC38" s="165"/>
-      <c r="AD38" s="165"/>
-      <c r="AE38" s="165"/>
-      <c r="AF38" s="165"/>
-      <c r="AG38" s="165"/>
-      <c r="AH38" s="165"/>
-      <c r="AI38" s="165"/>
-      <c r="AJ38" s="165"/>
-      <c r="AK38" s="165"/>
-      <c r="AL38" s="165"/>
-      <c r="AM38" s="165"/>
-      <c r="AN38" s="165"/>
-      <c r="AO38" s="165"/>
-      <c r="AP38" s="165"/>
-      <c r="AQ38" s="165"/>
-      <c r="AR38" s="165"/>
-      <c r="AS38" s="166"/>
+      <c r="AC38" s="153"/>
+      <c r="AD38" s="153"/>
+      <c r="AE38" s="153"/>
+      <c r="AF38" s="153"/>
+      <c r="AG38" s="153"/>
+      <c r="AH38" s="153"/>
+      <c r="AI38" s="153"/>
+      <c r="AJ38" s="153"/>
+      <c r="AK38" s="153"/>
+      <c r="AL38" s="153"/>
+      <c r="AM38" s="153"/>
+      <c r="AN38" s="153"/>
+      <c r="AO38" s="153"/>
+      <c r="AP38" s="153"/>
+      <c r="AQ38" s="153"/>
+      <c r="AR38" s="153"/>
+      <c r="AS38" s="154"/>
       <c r="AU38" s="8"/>
     </row>
     <row r="39" spans="1:47" ht="18.75" customHeight="1">
       <c r="A39" s="8"/>
-      <c r="B39" s="63">
+      <c r="B39" s="71">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C39" s="63"/>
-      <c r="D39" s="93" t="s">
+      <c r="C39" s="71"/>
+      <c r="D39" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93"/>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
-      <c r="L39" s="63" t="s">
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="M39" s="63"/>
-      <c r="N39" s="63"/>
-      <c r="O39" s="63"/>
-      <c r="P39" s="63" t="s">
+      <c r="M39" s="71"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="Q39" s="63"/>
-      <c r="R39" s="63"/>
-      <c r="S39" s="63"/>
-      <c r="T39" s="63" t="s">
+      <c r="Q39" s="71"/>
+      <c r="R39" s="71"/>
+      <c r="S39" s="71"/>
+      <c r="T39" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="U39" s="63"/>
-      <c r="V39" s="63"/>
-      <c r="W39" s="63"/>
-      <c r="X39" s="63" t="s">
+      <c r="U39" s="71"/>
+      <c r="V39" s="71"/>
+      <c r="W39" s="71"/>
+      <c r="X39" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="Y39" s="63"/>
-      <c r="Z39" s="63"/>
-      <c r="AA39" s="63"/>
-      <c r="AB39" s="167" t="s">
+      <c r="Y39" s="71"/>
+      <c r="Z39" s="71"/>
+      <c r="AA39" s="71"/>
+      <c r="AB39" s="155" t="s">
         <v>76</v>
       </c>
-      <c r="AC39" s="168"/>
-      <c r="AD39" s="168"/>
-      <c r="AE39" s="168"/>
-      <c r="AF39" s="168"/>
-      <c r="AG39" s="168"/>
-      <c r="AH39" s="168"/>
-      <c r="AI39" s="168"/>
-      <c r="AJ39" s="168"/>
-      <c r="AK39" s="168"/>
-      <c r="AL39" s="168"/>
-      <c r="AM39" s="168"/>
-      <c r="AN39" s="168"/>
-      <c r="AO39" s="168"/>
-      <c r="AP39" s="168"/>
-      <c r="AQ39" s="168"/>
-      <c r="AR39" s="168"/>
-      <c r="AS39" s="169"/>
+      <c r="AC39" s="156"/>
+      <c r="AD39" s="156"/>
+      <c r="AE39" s="156"/>
+      <c r="AF39" s="156"/>
+      <c r="AG39" s="156"/>
+      <c r="AH39" s="156"/>
+      <c r="AI39" s="156"/>
+      <c r="AJ39" s="156"/>
+      <c r="AK39" s="156"/>
+      <c r="AL39" s="156"/>
+      <c r="AM39" s="156"/>
+      <c r="AN39" s="156"/>
+      <c r="AO39" s="156"/>
+      <c r="AP39" s="156"/>
+      <c r="AQ39" s="156"/>
+      <c r="AR39" s="156"/>
+      <c r="AS39" s="157"/>
       <c r="AU39" s="8"/>
     </row>
     <row r="40" spans="1:47">
@@ -14168,26 +14438,34 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="AB38:AS38"/>
-    <mergeCell ref="AB39:AS39"/>
-    <mergeCell ref="AB33:AS33"/>
-    <mergeCell ref="AB34:AS34"/>
-    <mergeCell ref="AB35:AS35"/>
-    <mergeCell ref="AB36:AS36"/>
-    <mergeCell ref="AB37:AS37"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:AK1"/>
-    <mergeCell ref="AL1:AT1"/>
-    <mergeCell ref="A2:I4"/>
-    <mergeCell ref="J2:AK4"/>
-    <mergeCell ref="AL2:AT2"/>
-    <mergeCell ref="AL3:AT3"/>
-    <mergeCell ref="AL4:AT4"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:K33"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="T33:W33"/>
-    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="X35:AA35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:K36"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="X36:AA36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:K35"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="T35:W35"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="X39:AA39"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="X37:AA37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:K38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="P38:S38"/>
+    <mergeCell ref="X38:AA38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="L39:O39"/>
     <mergeCell ref="T39:W39"/>
     <mergeCell ref="P39:S39"/>
     <mergeCell ref="AB32:AS32"/>
@@ -14204,34 +14482,26 @@
     <mergeCell ref="T32:W32"/>
     <mergeCell ref="P32:S32"/>
     <mergeCell ref="X32:AA32"/>
-    <mergeCell ref="X39:AA39"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="X37:AA37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:K38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="P38:S38"/>
-    <mergeCell ref="X38:AA38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="X35:AA35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:K36"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="T36:W36"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="X36:AA36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:K35"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="T35:W35"/>
-    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="T33:W33"/>
+    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:AK1"/>
+    <mergeCell ref="AL1:AT1"/>
+    <mergeCell ref="A2:I4"/>
+    <mergeCell ref="J2:AK4"/>
+    <mergeCell ref="AL2:AT2"/>
+    <mergeCell ref="AL3:AT3"/>
+    <mergeCell ref="AL4:AT4"/>
+    <mergeCell ref="AB38:AS38"/>
+    <mergeCell ref="AB39:AS39"/>
+    <mergeCell ref="AB33:AS33"/>
+    <mergeCell ref="AB34:AS34"/>
+    <mergeCell ref="AB35:AS35"/>
+    <mergeCell ref="AB36:AS36"/>
+    <mergeCell ref="AB37:AS37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14254,212 +14524,212 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="73" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="73" t="s">
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="82"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="88"/>
     </row>
     <row r="2" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="161" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="74" t="s">
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="75"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="76"/>
-      <c r="AL2" s="158">
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="167">
         <v>43617</v>
       </c>
-      <c r="AM2" s="159"/>
-      <c r="AN2" s="159"/>
-      <c r="AO2" s="159"/>
-      <c r="AP2" s="159"/>
-      <c r="AQ2" s="159"/>
-      <c r="AR2" s="159"/>
-      <c r="AS2" s="159"/>
-      <c r="AT2" s="160"/>
+      <c r="AM2" s="168"/>
+      <c r="AN2" s="168"/>
+      <c r="AO2" s="168"/>
+      <c r="AP2" s="168"/>
+      <c r="AQ2" s="168"/>
+      <c r="AR2" s="168"/>
+      <c r="AS2" s="168"/>
+      <c r="AT2" s="169"/>
     </row>
     <row r="3" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A3" s="152"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="75"/>
-      <c r="AH3" s="75"/>
-      <c r="AI3" s="75"/>
-      <c r="AJ3" s="75"/>
-      <c r="AK3" s="76"/>
-      <c r="AL3" s="83" t="s">
+      <c r="A3" s="161"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="83"/>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="84"/>
+      <c r="AL3" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="84"/>
-      <c r="AO3" s="84"/>
-      <c r="AP3" s="84"/>
-      <c r="AQ3" s="84"/>
-      <c r="AR3" s="84"/>
-      <c r="AS3" s="84"/>
-      <c r="AT3" s="85"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="64"/>
+      <c r="AQ3" s="64"/>
+      <c r="AR3" s="64"/>
+      <c r="AS3" s="64"/>
+      <c r="AT3" s="89"/>
     </row>
     <row r="4" spans="1:46" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A4" s="155"/>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="78"/>
-      <c r="AG4" s="78"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="78"/>
-      <c r="AJ4" s="78"/>
-      <c r="AK4" s="79"/>
-      <c r="AL4" s="161" t="s">
+      <c r="A4" s="164"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="86"/>
+      <c r="AD4" s="86"/>
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="86"/>
+      <c r="AK4" s="87"/>
+      <c r="AL4" s="170" t="s">
         <v>122</v>
       </c>
-      <c r="AM4" s="162"/>
-      <c r="AN4" s="162"/>
-      <c r="AO4" s="162"/>
-      <c r="AP4" s="162"/>
-      <c r="AQ4" s="162"/>
-      <c r="AR4" s="162"/>
-      <c r="AS4" s="162"/>
-      <c r="AT4" s="163"/>
+      <c r="AM4" s="171"/>
+      <c r="AN4" s="171"/>
+      <c r="AO4" s="171"/>
+      <c r="AP4" s="171"/>
+      <c r="AQ4" s="171"/>
+      <c r="AR4" s="171"/>
+      <c r="AS4" s="171"/>
+      <c r="AT4" s="172"/>
     </row>
     <row r="6" spans="1:46">
       <c r="A6" s="29" t="s">
@@ -14561,38 +14831,38 @@
     </row>
     <row r="8" spans="1:46">
       <c r="A8" s="8"/>
-      <c r="B8" s="173" t="s">
+      <c r="B8" s="176" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="173"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="173"/>
-      <c r="J8" s="173"/>
-      <c r="K8" s="173" t="s">
+      <c r="C8" s="176"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="176"/>
+      <c r="G8" s="176"/>
+      <c r="H8" s="176"/>
+      <c r="I8" s="176"/>
+      <c r="J8" s="176"/>
+      <c r="K8" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="173"/>
-      <c r="M8" s="173"/>
-      <c r="N8" s="173"/>
-      <c r="O8" s="173"/>
-      <c r="P8" s="173"/>
-      <c r="Q8" s="173"/>
-      <c r="R8" s="173"/>
-      <c r="S8" s="173"/>
-      <c r="T8" s="173"/>
-      <c r="U8" s="173"/>
-      <c r="V8" s="173" t="s">
+      <c r="L8" s="176"/>
+      <c r="M8" s="176"/>
+      <c r="N8" s="176"/>
+      <c r="O8" s="176"/>
+      <c r="P8" s="176"/>
+      <c r="Q8" s="176"/>
+      <c r="R8" s="176"/>
+      <c r="S8" s="176"/>
+      <c r="T8" s="176"/>
+      <c r="U8" s="176"/>
+      <c r="V8" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="W8" s="173"/>
-      <c r="X8" s="173"/>
-      <c r="Y8" s="173"/>
-      <c r="Z8" s="173"/>
-      <c r="AA8" s="173"/>
+      <c r="W8" s="176"/>
+      <c r="X8" s="176"/>
+      <c r="Y8" s="176"/>
+      <c r="Z8" s="176"/>
+      <c r="AA8" s="176"/>
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
       <c r="AD8" s="9"/>
@@ -14615,36 +14885,36 @@
     </row>
     <row r="9" spans="1:46">
       <c r="A9" s="8"/>
-      <c r="B9" s="174" t="s">
+      <c r="B9" s="177" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="174"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="174"/>
-      <c r="K9" s="176" t="s">
+      <c r="C9" s="177"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="176"/>
-      <c r="M9" s="176"/>
-      <c r="N9" s="176"/>
-      <c r="O9" s="176"/>
-      <c r="P9" s="176"/>
-      <c r="Q9" s="176"/>
-      <c r="R9" s="176"/>
-      <c r="S9" s="176"/>
-      <c r="T9" s="176"/>
-      <c r="U9" s="176"/>
-      <c r="V9" s="174"/>
-      <c r="W9" s="174"/>
-      <c r="X9" s="174"/>
-      <c r="Y9" s="174"/>
-      <c r="Z9" s="174"/>
-      <c r="AA9" s="174"/>
+      <c r="L9" s="178"/>
+      <c r="M9" s="178"/>
+      <c r="N9" s="178"/>
+      <c r="O9" s="178"/>
+      <c r="P9" s="178"/>
+      <c r="Q9" s="178"/>
+      <c r="R9" s="178"/>
+      <c r="S9" s="178"/>
+      <c r="T9" s="178"/>
+      <c r="U9" s="178"/>
+      <c r="V9" s="177"/>
+      <c r="W9" s="177"/>
+      <c r="X9" s="177"/>
+      <c r="Y9" s="177"/>
+      <c r="Z9" s="177"/>
+      <c r="AA9" s="177"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
       <c r="AD9" s="9"/>
@@ -14667,38 +14937,38 @@
     </row>
     <row r="10" spans="1:46">
       <c r="A10" s="8"/>
-      <c r="B10" s="175" t="s">
+      <c r="B10" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="175"/>
-      <c r="D10" s="175"/>
-      <c r="E10" s="175"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="175"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="175"/>
-      <c r="K10" s="92" t="s">
+      <c r="C10" s="173"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="173"/>
+      <c r="J10" s="173"/>
+      <c r="K10" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="175" t="s">
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="W10" s="175"/>
-      <c r="X10" s="175"/>
-      <c r="Y10" s="175"/>
-      <c r="Z10" s="175"/>
-      <c r="AA10" s="175"/>
+      <c r="W10" s="173"/>
+      <c r="X10" s="173"/>
+      <c r="Y10" s="173"/>
+      <c r="Z10" s="173"/>
+      <c r="AA10" s="173"/>
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
       <c r="AD10" s="9"/>
@@ -14721,38 +14991,38 @@
     </row>
     <row r="11" spans="1:46">
       <c r="A11" s="8"/>
-      <c r="B11" s="177" t="s">
+      <c r="B11" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="177"/>
-      <c r="D11" s="177"/>
-      <c r="E11" s="177"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="177"/>
-      <c r="J11" s="177"/>
-      <c r="K11" s="62" t="s">
+      <c r="C11" s="174"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="177" t="s">
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="W11" s="177"/>
-      <c r="X11" s="177"/>
-      <c r="Y11" s="177"/>
-      <c r="Z11" s="177"/>
-      <c r="AA11" s="177"/>
+      <c r="W11" s="174"/>
+      <c r="X11" s="174"/>
+      <c r="Y11" s="174"/>
+      <c r="Z11" s="174"/>
+      <c r="AA11" s="174"/>
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
@@ -14775,38 +15045,38 @@
     </row>
     <row r="12" spans="1:46">
       <c r="A12" s="8"/>
-      <c r="B12" s="177" t="s">
+      <c r="B12" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="177"/>
-      <c r="D12" s="177"/>
-      <c r="E12" s="177"/>
-      <c r="F12" s="177"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="177"/>
-      <c r="J12" s="177"/>
-      <c r="K12" s="62" t="s">
+      <c r="C12" s="174"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="177" t="s">
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="W12" s="177"/>
-      <c r="X12" s="177"/>
-      <c r="Y12" s="177"/>
-      <c r="Z12" s="177"/>
-      <c r="AA12" s="177"/>
+      <c r="W12" s="174"/>
+      <c r="X12" s="174"/>
+      <c r="Y12" s="174"/>
+      <c r="Z12" s="174"/>
+      <c r="AA12" s="174"/>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
@@ -14829,38 +15099,38 @@
     </row>
     <row r="13" spans="1:46">
       <c r="A13" s="8"/>
-      <c r="B13" s="178" t="s">
+      <c r="B13" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="178"/>
-      <c r="D13" s="178"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="178"/>
-      <c r="K13" s="93" t="s">
+      <c r="C13" s="175"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="178" t="s">
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="W13" s="178"/>
-      <c r="X13" s="178"/>
-      <c r="Y13" s="178"/>
-      <c r="Z13" s="178"/>
-      <c r="AA13" s="178"/>
+      <c r="W13" s="175"/>
+      <c r="X13" s="175"/>
+      <c r="Y13" s="175"/>
+      <c r="Z13" s="175"/>
+      <c r="AA13" s="175"/>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
@@ -15207,28 +15477,28 @@
     <row r="21" spans="1:46">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="118" t="s">
+      <c r="C21" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="119"/>
-      <c r="K21" s="119"/>
-      <c r="L21" s="119"/>
-      <c r="M21" s="119"/>
-      <c r="N21" s="119"/>
-      <c r="O21" s="119"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="119"/>
-      <c r="R21" s="119"/>
-      <c r="S21" s="119"/>
-      <c r="T21" s="119"/>
-      <c r="U21" s="119"/>
-      <c r="V21" s="120"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="97"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="97"/>
+      <c r="S21" s="97"/>
+      <c r="T21" s="97"/>
+      <c r="U21" s="97"/>
+      <c r="V21" s="98"/>
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
@@ -15258,27 +15528,27 @@
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="40"/>
-      <c r="D22" s="121" t="s">
+      <c r="D22" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="122"/>
-      <c r="L22" s="122"/>
-      <c r="M22" s="122"/>
-      <c r="N22" s="122"/>
-      <c r="O22" s="122"/>
-      <c r="P22" s="122"/>
-      <c r="Q22" s="122"/>
-      <c r="R22" s="122"/>
-      <c r="S22" s="122"/>
-      <c r="T22" s="122"/>
-      <c r="U22" s="122"/>
-      <c r="V22" s="123"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="100"/>
+      <c r="Q22" s="100"/>
+      <c r="R22" s="100"/>
+      <c r="S22" s="100"/>
+      <c r="T22" s="100"/>
+      <c r="U22" s="100"/>
+      <c r="V22" s="101"/>
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
@@ -15308,27 +15578,27 @@
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="40"/>
-      <c r="D23" s="105" t="s">
+      <c r="D23" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="106"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="106"/>
-      <c r="R23" s="106"/>
-      <c r="S23" s="106"/>
-      <c r="T23" s="106"/>
-      <c r="U23" s="106"/>
-      <c r="V23" s="107"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="103"/>
+      <c r="L23" s="103"/>
+      <c r="M23" s="103"/>
+      <c r="N23" s="103"/>
+      <c r="O23" s="103"/>
+      <c r="P23" s="103"/>
+      <c r="Q23" s="103"/>
+      <c r="R23" s="103"/>
+      <c r="S23" s="103"/>
+      <c r="T23" s="103"/>
+      <c r="U23" s="103"/>
+      <c r="V23" s="104"/>
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
@@ -15358,27 +15628,27 @@
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="40"/>
-      <c r="D24" s="118" t="s">
+      <c r="D24" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="119"/>
-      <c r="K24" s="119"/>
-      <c r="L24" s="119"/>
-      <c r="M24" s="119"/>
-      <c r="N24" s="119"/>
-      <c r="O24" s="119"/>
-      <c r="P24" s="119"/>
-      <c r="Q24" s="119"/>
-      <c r="R24" s="119"/>
-      <c r="S24" s="119"/>
-      <c r="T24" s="119"/>
-      <c r="U24" s="119"/>
-      <c r="V24" s="120"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="97"/>
+      <c r="L24" s="97"/>
+      <c r="M24" s="97"/>
+      <c r="N24" s="97"/>
+      <c r="O24" s="97"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="97"/>
+      <c r="S24" s="97"/>
+      <c r="T24" s="97"/>
+      <c r="U24" s="97"/>
+      <c r="V24" s="98"/>
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
@@ -15408,29 +15678,29 @@
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="40"/>
-      <c r="D25" s="121" t="s">
+      <c r="D25" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="122"/>
-      <c r="J25" s="123"/>
-      <c r="K25" s="121" t="s">
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="L25" s="122"/>
-      <c r="M25" s="122"/>
-      <c r="N25" s="122"/>
-      <c r="O25" s="122"/>
-      <c r="P25" s="122"/>
-      <c r="Q25" s="122"/>
-      <c r="R25" s="122"/>
-      <c r="S25" s="122"/>
-      <c r="T25" s="122"/>
-      <c r="U25" s="122"/>
-      <c r="V25" s="123"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="100"/>
+      <c r="P25" s="100"/>
+      <c r="Q25" s="100"/>
+      <c r="R25" s="100"/>
+      <c r="S25" s="100"/>
+      <c r="T25" s="100"/>
+      <c r="U25" s="100"/>
+      <c r="V25" s="101"/>
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
@@ -16248,6 +16518,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:AK1"/>
+    <mergeCell ref="AL1:AT1"/>
+    <mergeCell ref="A2:I4"/>
+    <mergeCell ref="J2:AK4"/>
+    <mergeCell ref="AL2:AT2"/>
+    <mergeCell ref="AL3:AT3"/>
+    <mergeCell ref="AL4:AT4"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="K8:U8"/>
+    <mergeCell ref="V8:AA8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="K9:U9"/>
+    <mergeCell ref="V9:AA9"/>
+    <mergeCell ref="K10:U10"/>
     <mergeCell ref="K11:U11"/>
     <mergeCell ref="K12:U12"/>
     <mergeCell ref="V10:AA10"/>
@@ -16264,22 +16550,6 @@
     <mergeCell ref="B12:J12"/>
     <mergeCell ref="B13:J13"/>
     <mergeCell ref="K13:U13"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="K8:U8"/>
-    <mergeCell ref="V8:AA8"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="K9:U9"/>
-    <mergeCell ref="V9:AA9"/>
-    <mergeCell ref="K10:U10"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:AK1"/>
-    <mergeCell ref="AL1:AT1"/>
-    <mergeCell ref="A2:I4"/>
-    <mergeCell ref="J2:AK4"/>
-    <mergeCell ref="AL2:AT2"/>
-    <mergeCell ref="AL3:AT3"/>
-    <mergeCell ref="AL4:AT4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16301,212 +16571,212 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="73" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="73" t="s">
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="82"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="88"/>
     </row>
     <row r="2" spans="1:46" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="161" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="74" t="s">
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="75"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="76"/>
-      <c r="AL2" s="158">
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="167">
         <v>43618</v>
       </c>
-      <c r="AM2" s="159"/>
-      <c r="AN2" s="159"/>
-      <c r="AO2" s="159"/>
-      <c r="AP2" s="159"/>
-      <c r="AQ2" s="159"/>
-      <c r="AR2" s="159"/>
-      <c r="AS2" s="159"/>
-      <c r="AT2" s="160"/>
+      <c r="AM2" s="168"/>
+      <c r="AN2" s="168"/>
+      <c r="AO2" s="168"/>
+      <c r="AP2" s="168"/>
+      <c r="AQ2" s="168"/>
+      <c r="AR2" s="168"/>
+      <c r="AS2" s="168"/>
+      <c r="AT2" s="169"/>
     </row>
     <row r="3" spans="1:46" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A3" s="152"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="75"/>
-      <c r="AH3" s="75"/>
-      <c r="AI3" s="75"/>
-      <c r="AJ3" s="75"/>
-      <c r="AK3" s="76"/>
-      <c r="AL3" s="83" t="s">
+      <c r="A3" s="161"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="83"/>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="84"/>
+      <c r="AL3" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="84"/>
-      <c r="AO3" s="84"/>
-      <c r="AP3" s="84"/>
-      <c r="AQ3" s="84"/>
-      <c r="AR3" s="84"/>
-      <c r="AS3" s="84"/>
-      <c r="AT3" s="85"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="64"/>
+      <c r="AQ3" s="64"/>
+      <c r="AR3" s="64"/>
+      <c r="AS3" s="64"/>
+      <c r="AT3" s="89"/>
     </row>
     <row r="4" spans="1:46" s="4" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A4" s="155"/>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="78"/>
-      <c r="AG4" s="78"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="78"/>
-      <c r="AJ4" s="78"/>
-      <c r="AK4" s="79"/>
-      <c r="AL4" s="161" t="s">
+      <c r="A4" s="164"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="86"/>
+      <c r="AD4" s="86"/>
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="86"/>
+      <c r="AK4" s="87"/>
+      <c r="AL4" s="170" t="s">
         <v>167</v>
       </c>
-      <c r="AM4" s="162"/>
-      <c r="AN4" s="162"/>
-      <c r="AO4" s="162"/>
-      <c r="AP4" s="162"/>
-      <c r="AQ4" s="162"/>
-      <c r="AR4" s="162"/>
-      <c r="AS4" s="162"/>
-      <c r="AT4" s="163"/>
+      <c r="AM4" s="171"/>
+      <c r="AN4" s="171"/>
+      <c r="AO4" s="171"/>
+      <c r="AP4" s="171"/>
+      <c r="AQ4" s="171"/>
+      <c r="AR4" s="171"/>
+      <c r="AS4" s="171"/>
+      <c r="AT4" s="172"/>
     </row>
     <row r="5" spans="1:46">
       <c r="A5" s="3"/>
@@ -16909,828 +17179,828 @@
     </row>
     <row r="14" spans="1:46">
       <c r="A14" s="1"/>
-      <c r="B14" s="138" t="s">
+      <c r="B14" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="138"/>
-      <c r="D14" s="125" t="s">
+      <c r="C14" s="136"/>
+      <c r="D14" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="126"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="126"/>
-      <c r="N14" s="126"/>
-      <c r="O14" s="126"/>
-      <c r="P14" s="126"/>
-      <c r="Q14" s="126"/>
-      <c r="R14" s="126"/>
-      <c r="S14" s="126"/>
-      <c r="T14" s="126"/>
-      <c r="U14" s="126"/>
-      <c r="V14" s="126"/>
-      <c r="W14" s="127"/>
-      <c r="X14" s="138" t="s">
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="125"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="125"/>
+      <c r="R14" s="125"/>
+      <c r="S14" s="125"/>
+      <c r="T14" s="125"/>
+      <c r="U14" s="125"/>
+      <c r="V14" s="125"/>
+      <c r="W14" s="126"/>
+      <c r="X14" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="Y14" s="138"/>
-      <c r="Z14" s="138"/>
-      <c r="AA14" s="138"/>
-      <c r="AB14" s="138"/>
-      <c r="AC14" s="138"/>
-      <c r="AD14" s="138"/>
-      <c r="AE14" s="138"/>
-      <c r="AF14" s="138"/>
-      <c r="AG14" s="138"/>
-      <c r="AH14" s="138"/>
-      <c r="AI14" s="138"/>
-      <c r="AJ14" s="138"/>
-      <c r="AK14" s="138"/>
-      <c r="AL14" s="138"/>
-      <c r="AM14" s="138"/>
-      <c r="AN14" s="138"/>
-      <c r="AO14" s="138"/>
-      <c r="AP14" s="138"/>
-      <c r="AQ14" s="125" t="s">
+      <c r="Y14" s="136"/>
+      <c r="Z14" s="136"/>
+      <c r="AA14" s="136"/>
+      <c r="AB14" s="136"/>
+      <c r="AC14" s="136"/>
+      <c r="AD14" s="136"/>
+      <c r="AE14" s="136"/>
+      <c r="AF14" s="136"/>
+      <c r="AG14" s="136"/>
+      <c r="AH14" s="136"/>
+      <c r="AI14" s="136"/>
+      <c r="AJ14" s="136"/>
+      <c r="AK14" s="136"/>
+      <c r="AL14" s="136"/>
+      <c r="AM14" s="136"/>
+      <c r="AN14" s="136"/>
+      <c r="AO14" s="136"/>
+      <c r="AP14" s="136"/>
+      <c r="AQ14" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="AR14" s="126"/>
-      <c r="AS14" s="127"/>
+      <c r="AR14" s="125"/>
+      <c r="AS14" s="126"/>
       <c r="AT14" s="51"/>
     </row>
     <row r="15" spans="1:46" ht="39.950000000000003" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="139">
+      <c r="B15" s="151">
         <f t="shared" ref="B15:B28" si="0">ROW()-14</f>
         <v>1</v>
       </c>
-      <c r="C15" s="139"/>
-      <c r="D15" s="128" t="s">
+      <c r="C15" s="151"/>
+      <c r="D15" s="141" t="s">
         <v>148</v>
       </c>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="129"/>
-      <c r="O15" s="129"/>
-      <c r="P15" s="129"/>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="129"/>
-      <c r="S15" s="129"/>
-      <c r="T15" s="129"/>
-      <c r="U15" s="129"/>
-      <c r="V15" s="129"/>
-      <c r="W15" s="130"/>
-      <c r="X15" s="187" t="s">
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="142"/>
+      <c r="M15" s="142"/>
+      <c r="N15" s="142"/>
+      <c r="O15" s="142"/>
+      <c r="P15" s="142"/>
+      <c r="Q15" s="142"/>
+      <c r="R15" s="142"/>
+      <c r="S15" s="142"/>
+      <c r="T15" s="142"/>
+      <c r="U15" s="142"/>
+      <c r="V15" s="142"/>
+      <c r="W15" s="143"/>
+      <c r="X15" s="179" t="s">
         <v>151</v>
       </c>
-      <c r="Y15" s="140"/>
-      <c r="Z15" s="140"/>
-      <c r="AA15" s="140"/>
-      <c r="AB15" s="140"/>
-      <c r="AC15" s="140"/>
-      <c r="AD15" s="140"/>
-      <c r="AE15" s="140"/>
-      <c r="AF15" s="140"/>
-      <c r="AG15" s="140"/>
-      <c r="AH15" s="140"/>
-      <c r="AI15" s="140"/>
-      <c r="AJ15" s="140"/>
-      <c r="AK15" s="140"/>
-      <c r="AL15" s="140"/>
-      <c r="AM15" s="140"/>
-      <c r="AN15" s="140"/>
-      <c r="AO15" s="140"/>
-      <c r="AP15" s="140"/>
-      <c r="AQ15" s="143"/>
-      <c r="AR15" s="144"/>
-      <c r="AS15" s="145"/>
+      <c r="Y15" s="137"/>
+      <c r="Z15" s="137"/>
+      <c r="AA15" s="137"/>
+      <c r="AB15" s="137"/>
+      <c r="AC15" s="137"/>
+      <c r="AD15" s="137"/>
+      <c r="AE15" s="137"/>
+      <c r="AF15" s="137"/>
+      <c r="AG15" s="137"/>
+      <c r="AH15" s="137"/>
+      <c r="AI15" s="137"/>
+      <c r="AJ15" s="137"/>
+      <c r="AK15" s="137"/>
+      <c r="AL15" s="137"/>
+      <c r="AM15" s="137"/>
+      <c r="AN15" s="137"/>
+      <c r="AO15" s="137"/>
+      <c r="AP15" s="137"/>
+      <c r="AQ15" s="127"/>
+      <c r="AR15" s="128"/>
+      <c r="AS15" s="129"/>
       <c r="AT15" s="51"/>
     </row>
     <row r="16" spans="1:46" ht="39.950000000000003" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="137">
+      <c r="B16" s="150">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C16" s="137"/>
-      <c r="D16" s="131" t="s">
+      <c r="C16" s="150"/>
+      <c r="D16" s="144" t="s">
         <v>149</v>
       </c>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="132"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="132"/>
-      <c r="N16" s="132"/>
-      <c r="O16" s="132"/>
-      <c r="P16" s="132"/>
-      <c r="Q16" s="132"/>
-      <c r="R16" s="132"/>
-      <c r="S16" s="132"/>
-      <c r="T16" s="132"/>
-      <c r="U16" s="132"/>
-      <c r="V16" s="132"/>
-      <c r="W16" s="133"/>
-      <c r="X16" s="179" t="s">
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="145"/>
+      <c r="K16" s="145"/>
+      <c r="L16" s="145"/>
+      <c r="M16" s="145"/>
+      <c r="N16" s="145"/>
+      <c r="O16" s="145"/>
+      <c r="P16" s="145"/>
+      <c r="Q16" s="145"/>
+      <c r="R16" s="145"/>
+      <c r="S16" s="145"/>
+      <c r="T16" s="145"/>
+      <c r="U16" s="145"/>
+      <c r="V16" s="145"/>
+      <c r="W16" s="146"/>
+      <c r="X16" s="187" t="s">
         <v>152</v>
       </c>
-      <c r="Y16" s="141"/>
-      <c r="Z16" s="141"/>
-      <c r="AA16" s="141"/>
-      <c r="AB16" s="141"/>
-      <c r="AC16" s="141"/>
-      <c r="AD16" s="141"/>
-      <c r="AE16" s="141"/>
-      <c r="AF16" s="141"/>
-      <c r="AG16" s="141"/>
-      <c r="AH16" s="141"/>
-      <c r="AI16" s="141"/>
-      <c r="AJ16" s="141"/>
-      <c r="AK16" s="141"/>
-      <c r="AL16" s="141"/>
-      <c r="AM16" s="141"/>
-      <c r="AN16" s="141"/>
-      <c r="AO16" s="141"/>
-      <c r="AP16" s="141"/>
-      <c r="AQ16" s="146"/>
-      <c r="AR16" s="147"/>
-      <c r="AS16" s="148"/>
+      <c r="Y16" s="138"/>
+      <c r="Z16" s="138"/>
+      <c r="AA16" s="138"/>
+      <c r="AB16" s="138"/>
+      <c r="AC16" s="138"/>
+      <c r="AD16" s="138"/>
+      <c r="AE16" s="138"/>
+      <c r="AF16" s="138"/>
+      <c r="AG16" s="138"/>
+      <c r="AH16" s="138"/>
+      <c r="AI16" s="138"/>
+      <c r="AJ16" s="138"/>
+      <c r="AK16" s="138"/>
+      <c r="AL16" s="138"/>
+      <c r="AM16" s="138"/>
+      <c r="AN16" s="138"/>
+      <c r="AO16" s="138"/>
+      <c r="AP16" s="138"/>
+      <c r="AQ16" s="130"/>
+      <c r="AR16" s="131"/>
+      <c r="AS16" s="132"/>
       <c r="AT16" s="51"/>
     </row>
     <row r="17" spans="1:46" ht="39.950000000000003" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="137">
+      <c r="B17" s="150">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C17" s="137"/>
-      <c r="D17" s="131" t="s">
+      <c r="C17" s="150"/>
+      <c r="D17" s="144" t="s">
         <v>150</v>
       </c>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="132"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="132"/>
-      <c r="P17" s="132"/>
-      <c r="Q17" s="132"/>
-      <c r="R17" s="132"/>
-      <c r="S17" s="132"/>
-      <c r="T17" s="132"/>
-      <c r="U17" s="132"/>
-      <c r="V17" s="132"/>
-      <c r="W17" s="133"/>
-      <c r="X17" s="179" t="s">
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="145"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="145"/>
+      <c r="M17" s="145"/>
+      <c r="N17" s="145"/>
+      <c r="O17" s="145"/>
+      <c r="P17" s="145"/>
+      <c r="Q17" s="145"/>
+      <c r="R17" s="145"/>
+      <c r="S17" s="145"/>
+      <c r="T17" s="145"/>
+      <c r="U17" s="145"/>
+      <c r="V17" s="145"/>
+      <c r="W17" s="146"/>
+      <c r="X17" s="187" t="s">
         <v>153</v>
       </c>
-      <c r="Y17" s="141"/>
-      <c r="Z17" s="141"/>
-      <c r="AA17" s="141"/>
-      <c r="AB17" s="141"/>
-      <c r="AC17" s="141"/>
-      <c r="AD17" s="141"/>
-      <c r="AE17" s="141"/>
-      <c r="AF17" s="141"/>
-      <c r="AG17" s="141"/>
-      <c r="AH17" s="141"/>
-      <c r="AI17" s="141"/>
-      <c r="AJ17" s="141"/>
-      <c r="AK17" s="141"/>
-      <c r="AL17" s="141"/>
-      <c r="AM17" s="141"/>
-      <c r="AN17" s="141"/>
-      <c r="AO17" s="141"/>
-      <c r="AP17" s="141"/>
-      <c r="AQ17" s="146"/>
-      <c r="AR17" s="147"/>
-      <c r="AS17" s="148"/>
+      <c r="Y17" s="138"/>
+      <c r="Z17" s="138"/>
+      <c r="AA17" s="138"/>
+      <c r="AB17" s="138"/>
+      <c r="AC17" s="138"/>
+      <c r="AD17" s="138"/>
+      <c r="AE17" s="138"/>
+      <c r="AF17" s="138"/>
+      <c r="AG17" s="138"/>
+      <c r="AH17" s="138"/>
+      <c r="AI17" s="138"/>
+      <c r="AJ17" s="138"/>
+      <c r="AK17" s="138"/>
+      <c r="AL17" s="138"/>
+      <c r="AM17" s="138"/>
+      <c r="AN17" s="138"/>
+      <c r="AO17" s="138"/>
+      <c r="AP17" s="138"/>
+      <c r="AQ17" s="130"/>
+      <c r="AR17" s="131"/>
+      <c r="AS17" s="132"/>
       <c r="AT17" s="51"/>
     </row>
     <row r="18" spans="1:46" ht="39.950000000000003" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="137">
+      <c r="B18" s="150">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C18" s="137"/>
-      <c r="D18" s="131" t="s">
+      <c r="C18" s="150"/>
+      <c r="D18" s="144" t="s">
         <v>154</v>
       </c>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="132"/>
-      <c r="K18" s="132"/>
-      <c r="L18" s="132"/>
-      <c r="M18" s="132"/>
-      <c r="N18" s="132"/>
-      <c r="O18" s="132"/>
-      <c r="P18" s="132"/>
-      <c r="Q18" s="132"/>
-      <c r="R18" s="132"/>
-      <c r="S18" s="132"/>
-      <c r="T18" s="132"/>
-      <c r="U18" s="132"/>
-      <c r="V18" s="132"/>
-      <c r="W18" s="133"/>
-      <c r="X18" s="179" t="s">
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="145"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="145"/>
+      <c r="M18" s="145"/>
+      <c r="N18" s="145"/>
+      <c r="O18" s="145"/>
+      <c r="P18" s="145"/>
+      <c r="Q18" s="145"/>
+      <c r="R18" s="145"/>
+      <c r="S18" s="145"/>
+      <c r="T18" s="145"/>
+      <c r="U18" s="145"/>
+      <c r="V18" s="145"/>
+      <c r="W18" s="146"/>
+      <c r="X18" s="187" t="s">
         <v>151</v>
       </c>
-      <c r="Y18" s="141"/>
-      <c r="Z18" s="141"/>
-      <c r="AA18" s="141"/>
-      <c r="AB18" s="141"/>
-      <c r="AC18" s="141"/>
-      <c r="AD18" s="141"/>
-      <c r="AE18" s="141"/>
-      <c r="AF18" s="141"/>
-      <c r="AG18" s="141"/>
-      <c r="AH18" s="141"/>
-      <c r="AI18" s="141"/>
-      <c r="AJ18" s="141"/>
-      <c r="AK18" s="141"/>
-      <c r="AL18" s="141"/>
-      <c r="AM18" s="141"/>
-      <c r="AN18" s="141"/>
-      <c r="AO18" s="141"/>
-      <c r="AP18" s="141"/>
-      <c r="AQ18" s="146"/>
-      <c r="AR18" s="147"/>
-      <c r="AS18" s="148"/>
+      <c r="Y18" s="138"/>
+      <c r="Z18" s="138"/>
+      <c r="AA18" s="138"/>
+      <c r="AB18" s="138"/>
+      <c r="AC18" s="138"/>
+      <c r="AD18" s="138"/>
+      <c r="AE18" s="138"/>
+      <c r="AF18" s="138"/>
+      <c r="AG18" s="138"/>
+      <c r="AH18" s="138"/>
+      <c r="AI18" s="138"/>
+      <c r="AJ18" s="138"/>
+      <c r="AK18" s="138"/>
+      <c r="AL18" s="138"/>
+      <c r="AM18" s="138"/>
+      <c r="AN18" s="138"/>
+      <c r="AO18" s="138"/>
+      <c r="AP18" s="138"/>
+      <c r="AQ18" s="130"/>
+      <c r="AR18" s="131"/>
+      <c r="AS18" s="132"/>
       <c r="AT18" s="51"/>
     </row>
     <row r="19" spans="1:46" ht="39.950000000000003" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="137">
+      <c r="B19" s="150">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C19" s="137"/>
-      <c r="D19" s="131" t="s">
+      <c r="C19" s="150"/>
+      <c r="D19" s="144" t="s">
         <v>155</v>
       </c>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="132"/>
-      <c r="K19" s="132"/>
-      <c r="L19" s="132"/>
-      <c r="M19" s="132"/>
-      <c r="N19" s="132"/>
-      <c r="O19" s="132"/>
-      <c r="P19" s="132"/>
-      <c r="Q19" s="132"/>
-      <c r="R19" s="132"/>
-      <c r="S19" s="132"/>
-      <c r="T19" s="132"/>
-      <c r="U19" s="132"/>
-      <c r="V19" s="132"/>
-      <c r="W19" s="133"/>
-      <c r="X19" s="179" t="s">
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="145"/>
+      <c r="K19" s="145"/>
+      <c r="L19" s="145"/>
+      <c r="M19" s="145"/>
+      <c r="N19" s="145"/>
+      <c r="O19" s="145"/>
+      <c r="P19" s="145"/>
+      <c r="Q19" s="145"/>
+      <c r="R19" s="145"/>
+      <c r="S19" s="145"/>
+      <c r="T19" s="145"/>
+      <c r="U19" s="145"/>
+      <c r="V19" s="145"/>
+      <c r="W19" s="146"/>
+      <c r="X19" s="187" t="s">
         <v>156</v>
       </c>
-      <c r="Y19" s="141"/>
-      <c r="Z19" s="141"/>
-      <c r="AA19" s="141"/>
-      <c r="AB19" s="141"/>
-      <c r="AC19" s="141"/>
-      <c r="AD19" s="141"/>
-      <c r="AE19" s="141"/>
-      <c r="AF19" s="141"/>
-      <c r="AG19" s="141"/>
-      <c r="AH19" s="141"/>
-      <c r="AI19" s="141"/>
-      <c r="AJ19" s="141"/>
-      <c r="AK19" s="141"/>
-      <c r="AL19" s="141"/>
-      <c r="AM19" s="141"/>
-      <c r="AN19" s="141"/>
-      <c r="AO19" s="141"/>
-      <c r="AP19" s="141"/>
-      <c r="AQ19" s="146"/>
-      <c r="AR19" s="147"/>
-      <c r="AS19" s="148"/>
+      <c r="Y19" s="138"/>
+      <c r="Z19" s="138"/>
+      <c r="AA19" s="138"/>
+      <c r="AB19" s="138"/>
+      <c r="AC19" s="138"/>
+      <c r="AD19" s="138"/>
+      <c r="AE19" s="138"/>
+      <c r="AF19" s="138"/>
+      <c r="AG19" s="138"/>
+      <c r="AH19" s="138"/>
+      <c r="AI19" s="138"/>
+      <c r="AJ19" s="138"/>
+      <c r="AK19" s="138"/>
+      <c r="AL19" s="138"/>
+      <c r="AM19" s="138"/>
+      <c r="AN19" s="138"/>
+      <c r="AO19" s="138"/>
+      <c r="AP19" s="138"/>
+      <c r="AQ19" s="130"/>
+      <c r="AR19" s="131"/>
+      <c r="AS19" s="132"/>
       <c r="AT19" s="51"/>
     </row>
     <row r="20" spans="1:46" ht="39.950000000000003" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="137">
+      <c r="B20" s="150">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C20" s="137"/>
-      <c r="D20" s="131" t="s">
+      <c r="C20" s="150"/>
+      <c r="D20" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="132"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="132"/>
-      <c r="K20" s="132"/>
-      <c r="L20" s="132"/>
-      <c r="M20" s="132"/>
-      <c r="N20" s="132"/>
-      <c r="O20" s="132"/>
-      <c r="P20" s="132"/>
-      <c r="Q20" s="132"/>
-      <c r="R20" s="132"/>
-      <c r="S20" s="132"/>
-      <c r="T20" s="132"/>
-      <c r="U20" s="132"/>
-      <c r="V20" s="132"/>
-      <c r="W20" s="133"/>
-      <c r="X20" s="179" t="s">
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="145"/>
+      <c r="K20" s="145"/>
+      <c r="L20" s="145"/>
+      <c r="M20" s="145"/>
+      <c r="N20" s="145"/>
+      <c r="O20" s="145"/>
+      <c r="P20" s="145"/>
+      <c r="Q20" s="145"/>
+      <c r="R20" s="145"/>
+      <c r="S20" s="145"/>
+      <c r="T20" s="145"/>
+      <c r="U20" s="145"/>
+      <c r="V20" s="145"/>
+      <c r="W20" s="146"/>
+      <c r="X20" s="187" t="s">
         <v>158</v>
       </c>
-      <c r="Y20" s="141"/>
-      <c r="Z20" s="141"/>
-      <c r="AA20" s="141"/>
-      <c r="AB20" s="141"/>
-      <c r="AC20" s="141"/>
-      <c r="AD20" s="141"/>
-      <c r="AE20" s="141"/>
-      <c r="AF20" s="141"/>
-      <c r="AG20" s="141"/>
-      <c r="AH20" s="141"/>
-      <c r="AI20" s="141"/>
-      <c r="AJ20" s="141"/>
-      <c r="AK20" s="141"/>
-      <c r="AL20" s="141"/>
-      <c r="AM20" s="141"/>
-      <c r="AN20" s="141"/>
-      <c r="AO20" s="141"/>
-      <c r="AP20" s="141"/>
-      <c r="AQ20" s="146"/>
-      <c r="AR20" s="147"/>
-      <c r="AS20" s="148"/>
+      <c r="Y20" s="138"/>
+      <c r="Z20" s="138"/>
+      <c r="AA20" s="138"/>
+      <c r="AB20" s="138"/>
+      <c r="AC20" s="138"/>
+      <c r="AD20" s="138"/>
+      <c r="AE20" s="138"/>
+      <c r="AF20" s="138"/>
+      <c r="AG20" s="138"/>
+      <c r="AH20" s="138"/>
+      <c r="AI20" s="138"/>
+      <c r="AJ20" s="138"/>
+      <c r="AK20" s="138"/>
+      <c r="AL20" s="138"/>
+      <c r="AM20" s="138"/>
+      <c r="AN20" s="138"/>
+      <c r="AO20" s="138"/>
+      <c r="AP20" s="138"/>
+      <c r="AQ20" s="130"/>
+      <c r="AR20" s="131"/>
+      <c r="AS20" s="132"/>
       <c r="AT20" s="51"/>
     </row>
     <row r="21" spans="1:46" ht="39.950000000000003" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="137">
+      <c r="B21" s="150">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C21" s="137"/>
-      <c r="D21" s="131" t="s">
+      <c r="C21" s="150"/>
+      <c r="D21" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="132"/>
-      <c r="O21" s="132"/>
-      <c r="P21" s="132"/>
-      <c r="Q21" s="132"/>
-      <c r="R21" s="132"/>
-      <c r="S21" s="132"/>
-      <c r="T21" s="132"/>
-      <c r="U21" s="132"/>
-      <c r="V21" s="132"/>
-      <c r="W21" s="133"/>
-      <c r="X21" s="179" t="s">
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="145"/>
+      <c r="K21" s="145"/>
+      <c r="L21" s="145"/>
+      <c r="M21" s="145"/>
+      <c r="N21" s="145"/>
+      <c r="O21" s="145"/>
+      <c r="P21" s="145"/>
+      <c r="Q21" s="145"/>
+      <c r="R21" s="145"/>
+      <c r="S21" s="145"/>
+      <c r="T21" s="145"/>
+      <c r="U21" s="145"/>
+      <c r="V21" s="145"/>
+      <c r="W21" s="146"/>
+      <c r="X21" s="187" t="s">
         <v>151</v>
       </c>
-      <c r="Y21" s="141"/>
-      <c r="Z21" s="141"/>
-      <c r="AA21" s="141"/>
-      <c r="AB21" s="141"/>
-      <c r="AC21" s="141"/>
-      <c r="AD21" s="141"/>
-      <c r="AE21" s="141"/>
-      <c r="AF21" s="141"/>
-      <c r="AG21" s="141"/>
-      <c r="AH21" s="141"/>
-      <c r="AI21" s="141"/>
-      <c r="AJ21" s="141"/>
-      <c r="AK21" s="141"/>
-      <c r="AL21" s="141"/>
-      <c r="AM21" s="141"/>
-      <c r="AN21" s="141"/>
-      <c r="AO21" s="141"/>
-      <c r="AP21" s="141"/>
-      <c r="AQ21" s="146"/>
-      <c r="AR21" s="147"/>
-      <c r="AS21" s="148"/>
+      <c r="Y21" s="138"/>
+      <c r="Z21" s="138"/>
+      <c r="AA21" s="138"/>
+      <c r="AB21" s="138"/>
+      <c r="AC21" s="138"/>
+      <c r="AD21" s="138"/>
+      <c r="AE21" s="138"/>
+      <c r="AF21" s="138"/>
+      <c r="AG21" s="138"/>
+      <c r="AH21" s="138"/>
+      <c r="AI21" s="138"/>
+      <c r="AJ21" s="138"/>
+      <c r="AK21" s="138"/>
+      <c r="AL21" s="138"/>
+      <c r="AM21" s="138"/>
+      <c r="AN21" s="138"/>
+      <c r="AO21" s="138"/>
+      <c r="AP21" s="138"/>
+      <c r="AQ21" s="130"/>
+      <c r="AR21" s="131"/>
+      <c r="AS21" s="132"/>
       <c r="AT21" s="51"/>
     </row>
     <row r="22" spans="1:46" ht="39.950000000000003" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="137">
+      <c r="B22" s="150">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C22" s="137"/>
-      <c r="D22" s="131" t="s">
+      <c r="C22" s="150"/>
+      <c r="D22" s="144" t="s">
         <v>160</v>
       </c>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="132"/>
-      <c r="L22" s="132"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="132"/>
-      <c r="O22" s="132"/>
-      <c r="P22" s="132"/>
-      <c r="Q22" s="132"/>
-      <c r="R22" s="132"/>
-      <c r="S22" s="132"/>
-      <c r="T22" s="132"/>
-      <c r="U22" s="132"/>
-      <c r="V22" s="132"/>
-      <c r="W22" s="133"/>
-      <c r="X22" s="179" t="s">
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="145"/>
+      <c r="K22" s="145"/>
+      <c r="L22" s="145"/>
+      <c r="M22" s="145"/>
+      <c r="N22" s="145"/>
+      <c r="O22" s="145"/>
+      <c r="P22" s="145"/>
+      <c r="Q22" s="145"/>
+      <c r="R22" s="145"/>
+      <c r="S22" s="145"/>
+      <c r="T22" s="145"/>
+      <c r="U22" s="145"/>
+      <c r="V22" s="145"/>
+      <c r="W22" s="146"/>
+      <c r="X22" s="187" t="s">
         <v>152</v>
       </c>
-      <c r="Y22" s="141"/>
-      <c r="Z22" s="141"/>
-      <c r="AA22" s="141"/>
-      <c r="AB22" s="141"/>
-      <c r="AC22" s="141"/>
-      <c r="AD22" s="141"/>
-      <c r="AE22" s="141"/>
-      <c r="AF22" s="141"/>
-      <c r="AG22" s="141"/>
-      <c r="AH22" s="141"/>
-      <c r="AI22" s="141"/>
-      <c r="AJ22" s="141"/>
-      <c r="AK22" s="141"/>
-      <c r="AL22" s="141"/>
-      <c r="AM22" s="141"/>
-      <c r="AN22" s="141"/>
-      <c r="AO22" s="141"/>
-      <c r="AP22" s="141"/>
-      <c r="AQ22" s="146"/>
-      <c r="AR22" s="147"/>
-      <c r="AS22" s="148"/>
+      <c r="Y22" s="138"/>
+      <c r="Z22" s="138"/>
+      <c r="AA22" s="138"/>
+      <c r="AB22" s="138"/>
+      <c r="AC22" s="138"/>
+      <c r="AD22" s="138"/>
+      <c r="AE22" s="138"/>
+      <c r="AF22" s="138"/>
+      <c r="AG22" s="138"/>
+      <c r="AH22" s="138"/>
+      <c r="AI22" s="138"/>
+      <c r="AJ22" s="138"/>
+      <c r="AK22" s="138"/>
+      <c r="AL22" s="138"/>
+      <c r="AM22" s="138"/>
+      <c r="AN22" s="138"/>
+      <c r="AO22" s="138"/>
+      <c r="AP22" s="138"/>
+      <c r="AQ22" s="130"/>
+      <c r="AR22" s="131"/>
+      <c r="AS22" s="132"/>
       <c r="AT22" s="51"/>
     </row>
     <row r="23" spans="1:46" ht="39.950000000000003" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="137">
+      <c r="B23" s="150">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C23" s="137"/>
-      <c r="D23" s="131" t="s">
+      <c r="C23" s="150"/>
+      <c r="D23" s="144" t="s">
         <v>161</v>
       </c>
-      <c r="E23" s="132"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="132"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="132"/>
-      <c r="K23" s="132"/>
-      <c r="L23" s="132"/>
-      <c r="M23" s="132"/>
-      <c r="N23" s="132"/>
-      <c r="O23" s="132"/>
-      <c r="P23" s="132"/>
-      <c r="Q23" s="132"/>
-      <c r="R23" s="132"/>
-      <c r="S23" s="132"/>
-      <c r="T23" s="132"/>
-      <c r="U23" s="132"/>
-      <c r="V23" s="132"/>
-      <c r="W23" s="133"/>
-      <c r="X23" s="179" t="s">
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="145"/>
+      <c r="K23" s="145"/>
+      <c r="L23" s="145"/>
+      <c r="M23" s="145"/>
+      <c r="N23" s="145"/>
+      <c r="O23" s="145"/>
+      <c r="P23" s="145"/>
+      <c r="Q23" s="145"/>
+      <c r="R23" s="145"/>
+      <c r="S23" s="145"/>
+      <c r="T23" s="145"/>
+      <c r="U23" s="145"/>
+      <c r="V23" s="145"/>
+      <c r="W23" s="146"/>
+      <c r="X23" s="187" t="s">
         <v>153</v>
       </c>
-      <c r="Y23" s="141"/>
-      <c r="Z23" s="141"/>
-      <c r="AA23" s="141"/>
-      <c r="AB23" s="141"/>
-      <c r="AC23" s="141"/>
-      <c r="AD23" s="141"/>
-      <c r="AE23" s="141"/>
-      <c r="AF23" s="141"/>
-      <c r="AG23" s="141"/>
-      <c r="AH23" s="141"/>
-      <c r="AI23" s="141"/>
-      <c r="AJ23" s="141"/>
-      <c r="AK23" s="141"/>
-      <c r="AL23" s="141"/>
-      <c r="AM23" s="141"/>
-      <c r="AN23" s="141"/>
-      <c r="AO23" s="141"/>
-      <c r="AP23" s="141"/>
-      <c r="AQ23" s="146"/>
-      <c r="AR23" s="147"/>
-      <c r="AS23" s="148"/>
+      <c r="Y23" s="138"/>
+      <c r="Z23" s="138"/>
+      <c r="AA23" s="138"/>
+      <c r="AB23" s="138"/>
+      <c r="AC23" s="138"/>
+      <c r="AD23" s="138"/>
+      <c r="AE23" s="138"/>
+      <c r="AF23" s="138"/>
+      <c r="AG23" s="138"/>
+      <c r="AH23" s="138"/>
+      <c r="AI23" s="138"/>
+      <c r="AJ23" s="138"/>
+      <c r="AK23" s="138"/>
+      <c r="AL23" s="138"/>
+      <c r="AM23" s="138"/>
+      <c r="AN23" s="138"/>
+      <c r="AO23" s="138"/>
+      <c r="AP23" s="138"/>
+      <c r="AQ23" s="130"/>
+      <c r="AR23" s="131"/>
+      <c r="AS23" s="132"/>
       <c r="AT23" s="51"/>
     </row>
     <row r="24" spans="1:46" ht="39.950000000000003" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="137">
+      <c r="B24" s="150">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C24" s="137"/>
-      <c r="D24" s="131" t="s">
+      <c r="C24" s="150"/>
+      <c r="D24" s="144" t="s">
         <v>162</v>
       </c>
-      <c r="E24" s="132"/>
-      <c r="F24" s="132"/>
-      <c r="G24" s="132"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="132"/>
-      <c r="K24" s="132"/>
-      <c r="L24" s="132"/>
-      <c r="M24" s="132"/>
-      <c r="N24" s="132"/>
-      <c r="O24" s="132"/>
-      <c r="P24" s="132"/>
-      <c r="Q24" s="132"/>
-      <c r="R24" s="132"/>
-      <c r="S24" s="132"/>
-      <c r="T24" s="132"/>
-      <c r="U24" s="132"/>
-      <c r="V24" s="132"/>
-      <c r="W24" s="133"/>
-      <c r="X24" s="179" t="s">
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="145"/>
+      <c r="K24" s="145"/>
+      <c r="L24" s="145"/>
+      <c r="M24" s="145"/>
+      <c r="N24" s="145"/>
+      <c r="O24" s="145"/>
+      <c r="P24" s="145"/>
+      <c r="Q24" s="145"/>
+      <c r="R24" s="145"/>
+      <c r="S24" s="145"/>
+      <c r="T24" s="145"/>
+      <c r="U24" s="145"/>
+      <c r="V24" s="145"/>
+      <c r="W24" s="146"/>
+      <c r="X24" s="187" t="s">
         <v>151</v>
       </c>
-      <c r="Y24" s="141"/>
-      <c r="Z24" s="141"/>
-      <c r="AA24" s="141"/>
-      <c r="AB24" s="141"/>
-      <c r="AC24" s="141"/>
-      <c r="AD24" s="141"/>
-      <c r="AE24" s="141"/>
-      <c r="AF24" s="141"/>
-      <c r="AG24" s="141"/>
-      <c r="AH24" s="141"/>
-      <c r="AI24" s="141"/>
-      <c r="AJ24" s="141"/>
-      <c r="AK24" s="141"/>
-      <c r="AL24" s="141"/>
-      <c r="AM24" s="141"/>
-      <c r="AN24" s="141"/>
-      <c r="AO24" s="141"/>
-      <c r="AP24" s="141"/>
-      <c r="AQ24" s="146"/>
-      <c r="AR24" s="147"/>
-      <c r="AS24" s="148"/>
+      <c r="Y24" s="138"/>
+      <c r="Z24" s="138"/>
+      <c r="AA24" s="138"/>
+      <c r="AB24" s="138"/>
+      <c r="AC24" s="138"/>
+      <c r="AD24" s="138"/>
+      <c r="AE24" s="138"/>
+      <c r="AF24" s="138"/>
+      <c r="AG24" s="138"/>
+      <c r="AH24" s="138"/>
+      <c r="AI24" s="138"/>
+      <c r="AJ24" s="138"/>
+      <c r="AK24" s="138"/>
+      <c r="AL24" s="138"/>
+      <c r="AM24" s="138"/>
+      <c r="AN24" s="138"/>
+      <c r="AO24" s="138"/>
+      <c r="AP24" s="138"/>
+      <c r="AQ24" s="130"/>
+      <c r="AR24" s="131"/>
+      <c r="AS24" s="132"/>
       <c r="AT24" s="51"/>
     </row>
     <row r="25" spans="1:46" ht="39.950000000000003" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="137">
+      <c r="B25" s="150">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C25" s="137"/>
-      <c r="D25" s="131" t="s">
+      <c r="C25" s="150"/>
+      <c r="D25" s="144" t="s">
         <v>163</v>
       </c>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="132"/>
-      <c r="K25" s="132"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="132"/>
-      <c r="O25" s="132"/>
-      <c r="P25" s="132"/>
-      <c r="Q25" s="132"/>
-      <c r="R25" s="132"/>
-      <c r="S25" s="132"/>
-      <c r="T25" s="132"/>
-      <c r="U25" s="132"/>
-      <c r="V25" s="132"/>
-      <c r="W25" s="133"/>
-      <c r="X25" s="179" t="s">
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="145"/>
+      <c r="K25" s="145"/>
+      <c r="L25" s="145"/>
+      <c r="M25" s="145"/>
+      <c r="N25" s="145"/>
+      <c r="O25" s="145"/>
+      <c r="P25" s="145"/>
+      <c r="Q25" s="145"/>
+      <c r="R25" s="145"/>
+      <c r="S25" s="145"/>
+      <c r="T25" s="145"/>
+      <c r="U25" s="145"/>
+      <c r="V25" s="145"/>
+      <c r="W25" s="146"/>
+      <c r="X25" s="187" t="s">
         <v>156</v>
       </c>
-      <c r="Y25" s="141"/>
-      <c r="Z25" s="141"/>
-      <c r="AA25" s="141"/>
-      <c r="AB25" s="141"/>
-      <c r="AC25" s="141"/>
-      <c r="AD25" s="141"/>
-      <c r="AE25" s="141"/>
-      <c r="AF25" s="141"/>
-      <c r="AG25" s="141"/>
-      <c r="AH25" s="141"/>
-      <c r="AI25" s="141"/>
-      <c r="AJ25" s="141"/>
-      <c r="AK25" s="141"/>
-      <c r="AL25" s="141"/>
-      <c r="AM25" s="141"/>
-      <c r="AN25" s="141"/>
-      <c r="AO25" s="141"/>
-      <c r="AP25" s="141"/>
-      <c r="AQ25" s="146"/>
-      <c r="AR25" s="147"/>
-      <c r="AS25" s="148"/>
+      <c r="Y25" s="138"/>
+      <c r="Z25" s="138"/>
+      <c r="AA25" s="138"/>
+      <c r="AB25" s="138"/>
+      <c r="AC25" s="138"/>
+      <c r="AD25" s="138"/>
+      <c r="AE25" s="138"/>
+      <c r="AF25" s="138"/>
+      <c r="AG25" s="138"/>
+      <c r="AH25" s="138"/>
+      <c r="AI25" s="138"/>
+      <c r="AJ25" s="138"/>
+      <c r="AK25" s="138"/>
+      <c r="AL25" s="138"/>
+      <c r="AM25" s="138"/>
+      <c r="AN25" s="138"/>
+      <c r="AO25" s="138"/>
+      <c r="AP25" s="138"/>
+      <c r="AQ25" s="130"/>
+      <c r="AR25" s="131"/>
+      <c r="AS25" s="132"/>
       <c r="AT25" s="51"/>
     </row>
     <row r="26" spans="1:46" ht="39.950000000000003" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="137">
+      <c r="B26" s="150">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C26" s="137"/>
-      <c r="D26" s="131" t="s">
+      <c r="C26" s="150"/>
+      <c r="D26" s="144" t="s">
         <v>164</v>
       </c>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="132"/>
-      <c r="K26" s="132"/>
-      <c r="L26" s="132"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="132"/>
-      <c r="O26" s="132"/>
-      <c r="P26" s="132"/>
-      <c r="Q26" s="132"/>
-      <c r="R26" s="132"/>
-      <c r="S26" s="132"/>
-      <c r="T26" s="132"/>
-      <c r="U26" s="132"/>
-      <c r="V26" s="132"/>
-      <c r="W26" s="133"/>
-      <c r="X26" s="179" t="s">
+      <c r="E26" s="145"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="145"/>
+      <c r="K26" s="145"/>
+      <c r="L26" s="145"/>
+      <c r="M26" s="145"/>
+      <c r="N26" s="145"/>
+      <c r="O26" s="145"/>
+      <c r="P26" s="145"/>
+      <c r="Q26" s="145"/>
+      <c r="R26" s="145"/>
+      <c r="S26" s="145"/>
+      <c r="T26" s="145"/>
+      <c r="U26" s="145"/>
+      <c r="V26" s="145"/>
+      <c r="W26" s="146"/>
+      <c r="X26" s="187" t="s">
         <v>165</v>
       </c>
-      <c r="Y26" s="141"/>
-      <c r="Z26" s="141"/>
-      <c r="AA26" s="141"/>
-      <c r="AB26" s="141"/>
-      <c r="AC26" s="141"/>
-      <c r="AD26" s="141"/>
-      <c r="AE26" s="141"/>
-      <c r="AF26" s="141"/>
-      <c r="AG26" s="141"/>
-      <c r="AH26" s="141"/>
-      <c r="AI26" s="141"/>
-      <c r="AJ26" s="141"/>
-      <c r="AK26" s="141"/>
-      <c r="AL26" s="141"/>
-      <c r="AM26" s="141"/>
-      <c r="AN26" s="141"/>
-      <c r="AO26" s="141"/>
-      <c r="AP26" s="141"/>
-      <c r="AQ26" s="146"/>
-      <c r="AR26" s="147"/>
-      <c r="AS26" s="148"/>
+      <c r="Y26" s="138"/>
+      <c r="Z26" s="138"/>
+      <c r="AA26" s="138"/>
+      <c r="AB26" s="138"/>
+      <c r="AC26" s="138"/>
+      <c r="AD26" s="138"/>
+      <c r="AE26" s="138"/>
+      <c r="AF26" s="138"/>
+      <c r="AG26" s="138"/>
+      <c r="AH26" s="138"/>
+      <c r="AI26" s="138"/>
+      <c r="AJ26" s="138"/>
+      <c r="AK26" s="138"/>
+      <c r="AL26" s="138"/>
+      <c r="AM26" s="138"/>
+      <c r="AN26" s="138"/>
+      <c r="AO26" s="138"/>
+      <c r="AP26" s="138"/>
+      <c r="AQ26" s="130"/>
+      <c r="AR26" s="131"/>
+      <c r="AS26" s="132"/>
       <c r="AT26" s="51"/>
     </row>
     <row r="27" spans="1:46" ht="120" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="137">
+      <c r="B27" s="150">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C27" s="137"/>
-      <c r="D27" s="180" t="s">
+      <c r="C27" s="150"/>
+      <c r="D27" s="184" t="s">
         <v>132</v>
       </c>
-      <c r="E27" s="181"/>
-      <c r="F27" s="181"/>
-      <c r="G27" s="181"/>
-      <c r="H27" s="181"/>
-      <c r="I27" s="181"/>
-      <c r="J27" s="181"/>
-      <c r="K27" s="181"/>
-      <c r="L27" s="181"/>
-      <c r="M27" s="181"/>
-      <c r="N27" s="181"/>
-      <c r="O27" s="181"/>
-      <c r="P27" s="181"/>
-      <c r="Q27" s="181"/>
-      <c r="R27" s="181"/>
-      <c r="S27" s="181"/>
-      <c r="T27" s="181"/>
-      <c r="U27" s="181"/>
-      <c r="V27" s="181"/>
-      <c r="W27" s="182"/>
-      <c r="X27" s="179" t="s">
+      <c r="E27" s="185"/>
+      <c r="F27" s="185"/>
+      <c r="G27" s="185"/>
+      <c r="H27" s="185"/>
+      <c r="I27" s="185"/>
+      <c r="J27" s="185"/>
+      <c r="K27" s="185"/>
+      <c r="L27" s="185"/>
+      <c r="M27" s="185"/>
+      <c r="N27" s="185"/>
+      <c r="O27" s="185"/>
+      <c r="P27" s="185"/>
+      <c r="Q27" s="185"/>
+      <c r="R27" s="185"/>
+      <c r="S27" s="185"/>
+      <c r="T27" s="185"/>
+      <c r="U27" s="185"/>
+      <c r="V27" s="185"/>
+      <c r="W27" s="186"/>
+      <c r="X27" s="187" t="s">
         <v>133</v>
       </c>
-      <c r="Y27" s="141"/>
-      <c r="Z27" s="141"/>
-      <c r="AA27" s="141"/>
-      <c r="AB27" s="141"/>
-      <c r="AC27" s="141"/>
-      <c r="AD27" s="141"/>
-      <c r="AE27" s="141"/>
-      <c r="AF27" s="141"/>
-      <c r="AG27" s="141"/>
-      <c r="AH27" s="141"/>
-      <c r="AI27" s="141"/>
-      <c r="AJ27" s="141"/>
-      <c r="AK27" s="141"/>
-      <c r="AL27" s="141"/>
-      <c r="AM27" s="141"/>
-      <c r="AN27" s="141"/>
-      <c r="AO27" s="141"/>
-      <c r="AP27" s="141"/>
-      <c r="AQ27" s="146"/>
-      <c r="AR27" s="147"/>
-      <c r="AS27" s="148"/>
+      <c r="Y27" s="138"/>
+      <c r="Z27" s="138"/>
+      <c r="AA27" s="138"/>
+      <c r="AB27" s="138"/>
+      <c r="AC27" s="138"/>
+      <c r="AD27" s="138"/>
+      <c r="AE27" s="138"/>
+      <c r="AF27" s="138"/>
+      <c r="AG27" s="138"/>
+      <c r="AH27" s="138"/>
+      <c r="AI27" s="138"/>
+      <c r="AJ27" s="138"/>
+      <c r="AK27" s="138"/>
+      <c r="AL27" s="138"/>
+      <c r="AM27" s="138"/>
+      <c r="AN27" s="138"/>
+      <c r="AO27" s="138"/>
+      <c r="AP27" s="138"/>
+      <c r="AQ27" s="130"/>
+      <c r="AR27" s="131"/>
+      <c r="AS27" s="132"/>
       <c r="AT27" s="51"/>
     </row>
     <row r="28" spans="1:46" ht="60" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="124">
+      <c r="B28" s="140">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C28" s="124"/>
-      <c r="D28" s="183" t="s">
+      <c r="C28" s="140"/>
+      <c r="D28" s="180" t="s">
         <v>134</v>
       </c>
-      <c r="E28" s="184"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="184"/>
-      <c r="I28" s="184"/>
-      <c r="J28" s="184"/>
-      <c r="K28" s="184"/>
-      <c r="L28" s="184"/>
-      <c r="M28" s="184"/>
-      <c r="N28" s="184"/>
-      <c r="O28" s="184"/>
-      <c r="P28" s="184"/>
-      <c r="Q28" s="184"/>
-      <c r="R28" s="184"/>
-      <c r="S28" s="184"/>
-      <c r="T28" s="184"/>
-      <c r="U28" s="184"/>
-      <c r="V28" s="184"/>
-      <c r="W28" s="185"/>
-      <c r="X28" s="186" t="s">
+      <c r="E28" s="181"/>
+      <c r="F28" s="181"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="181"/>
+      <c r="J28" s="181"/>
+      <c r="K28" s="181"/>
+      <c r="L28" s="181"/>
+      <c r="M28" s="181"/>
+      <c r="N28" s="181"/>
+      <c r="O28" s="181"/>
+      <c r="P28" s="181"/>
+      <c r="Q28" s="181"/>
+      <c r="R28" s="181"/>
+      <c r="S28" s="181"/>
+      <c r="T28" s="181"/>
+      <c r="U28" s="181"/>
+      <c r="V28" s="181"/>
+      <c r="W28" s="182"/>
+      <c r="X28" s="183" t="s">
         <v>135</v>
       </c>
-      <c r="Y28" s="186"/>
-      <c r="Z28" s="186"/>
-      <c r="AA28" s="186"/>
-      <c r="AB28" s="186"/>
-      <c r="AC28" s="186"/>
-      <c r="AD28" s="186"/>
-      <c r="AE28" s="186"/>
-      <c r="AF28" s="186"/>
-      <c r="AG28" s="186"/>
-      <c r="AH28" s="186"/>
-      <c r="AI28" s="186"/>
-      <c r="AJ28" s="186"/>
-      <c r="AK28" s="186"/>
-      <c r="AL28" s="186"/>
-      <c r="AM28" s="186"/>
-      <c r="AN28" s="186"/>
-      <c r="AO28" s="186"/>
-      <c r="AP28" s="186"/>
-      <c r="AQ28" s="149"/>
-      <c r="AR28" s="150"/>
-      <c r="AS28" s="151"/>
+      <c r="Y28" s="183"/>
+      <c r="Z28" s="183"/>
+      <c r="AA28" s="183"/>
+      <c r="AB28" s="183"/>
+      <c r="AC28" s="183"/>
+      <c r="AD28" s="183"/>
+      <c r="AE28" s="183"/>
+      <c r="AF28" s="183"/>
+      <c r="AG28" s="183"/>
+      <c r="AH28" s="183"/>
+      <c r="AI28" s="183"/>
+      <c r="AJ28" s="183"/>
+      <c r="AK28" s="183"/>
+      <c r="AL28" s="183"/>
+      <c r="AM28" s="183"/>
+      <c r="AN28" s="183"/>
+      <c r="AO28" s="183"/>
+      <c r="AP28" s="183"/>
+      <c r="AQ28" s="133"/>
+      <c r="AR28" s="134"/>
+      <c r="AS28" s="135"/>
       <c r="AT28" s="51"/>
     </row>
     <row r="29" spans="1:46">
@@ -17831,22 +18101,34 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:W15"/>
-    <mergeCell ref="X15:AP15"/>
-    <mergeCell ref="AQ15:AS15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:W28"/>
-    <mergeCell ref="X28:AP28"/>
-    <mergeCell ref="AQ28:AS28"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:AK1"/>
-    <mergeCell ref="AL1:AT1"/>
-    <mergeCell ref="A2:I4"/>
-    <mergeCell ref="J2:AK4"/>
-    <mergeCell ref="AL2:AT2"/>
-    <mergeCell ref="AL3:AT3"/>
-    <mergeCell ref="AL4:AT4"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:W16"/>
+    <mergeCell ref="X16:AP16"/>
+    <mergeCell ref="AQ16:AS16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:W18"/>
+    <mergeCell ref="X18:AP18"/>
+    <mergeCell ref="AQ18:AS18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:W17"/>
+    <mergeCell ref="X17:AP17"/>
+    <mergeCell ref="AQ17:AS17"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:W20"/>
+    <mergeCell ref="X20:AP20"/>
+    <mergeCell ref="AQ20:AS20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:W19"/>
+    <mergeCell ref="X19:AP19"/>
+    <mergeCell ref="AQ19:AS19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:W22"/>
+    <mergeCell ref="X22:AP22"/>
+    <mergeCell ref="AQ22:AS22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:W21"/>
+    <mergeCell ref="X21:AP21"/>
+    <mergeCell ref="AQ21:AS21"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:W14"/>
     <mergeCell ref="X14:AP14"/>
@@ -17863,6 +18145,22 @@
     <mergeCell ref="D25:W25"/>
     <mergeCell ref="X25:AP25"/>
     <mergeCell ref="AQ25:AS25"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:AK1"/>
+    <mergeCell ref="AL1:AT1"/>
+    <mergeCell ref="A2:I4"/>
+    <mergeCell ref="J2:AK4"/>
+    <mergeCell ref="AL2:AT2"/>
+    <mergeCell ref="AL3:AT3"/>
+    <mergeCell ref="AL4:AT4"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:W15"/>
+    <mergeCell ref="X15:AP15"/>
+    <mergeCell ref="AQ15:AS15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:W28"/>
+    <mergeCell ref="X28:AP28"/>
+    <mergeCell ref="AQ28:AS28"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:W24"/>
     <mergeCell ref="X24:AP24"/>
@@ -17871,36 +18169,1146 @@
     <mergeCell ref="D23:W23"/>
     <mergeCell ref="X23:AP23"/>
     <mergeCell ref="AQ23:AS23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:W22"/>
-    <mergeCell ref="X22:AP22"/>
-    <mergeCell ref="AQ22:AS22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:W21"/>
-    <mergeCell ref="X21:AP21"/>
-    <mergeCell ref="AQ21:AS21"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7A6B91-0F9C-4713-9164-A972DDCB7C5D}">
+  <dimension ref="A1:AT22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="4" width="2.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:46" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="88"/>
+    </row>
+    <row r="2" spans="1:46" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A2" s="161" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="167">
+        <v>43629</v>
+      </c>
+      <c r="AM2" s="168"/>
+      <c r="AN2" s="168"/>
+      <c r="AO2" s="168"/>
+      <c r="AP2" s="168"/>
+      <c r="AQ2" s="168"/>
+      <c r="AR2" s="168"/>
+      <c r="AS2" s="168"/>
+      <c r="AT2" s="169"/>
+    </row>
+    <row r="3" spans="1:46" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A3" s="161"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="83"/>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="84"/>
+      <c r="AL3" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="64"/>
+      <c r="AQ3" s="64"/>
+      <c r="AR3" s="64"/>
+      <c r="AS3" s="64"/>
+      <c r="AT3" s="89"/>
+    </row>
+    <row r="4" spans="1:46" s="4" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A4" s="164"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="86"/>
+      <c r="AD4" s="86"/>
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="86"/>
+      <c r="AK4" s="87"/>
+      <c r="AL4" s="170" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM4" s="171"/>
+      <c r="AN4" s="171"/>
+      <c r="AO4" s="171"/>
+      <c r="AP4" s="171"/>
+      <c r="AQ4" s="171"/>
+      <c r="AR4" s="171"/>
+      <c r="AS4" s="171"/>
+      <c r="AT4" s="172"/>
+    </row>
+    <row r="5" spans="1:46">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:46">
+      <c r="A6" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="49"/>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="49"/>
+      <c r="AK6" s="49"/>
+      <c r="AL6" s="49"/>
+      <c r="AM6" s="49"/>
+      <c r="AN6" s="49"/>
+      <c r="AO6" s="49"/>
+      <c r="AP6" s="49"/>
+      <c r="AQ6" s="49"/>
+      <c r="AR6" s="49"/>
+      <c r="AS6" s="49"/>
+      <c r="AT6" s="50"/>
+    </row>
+    <row r="7" spans="1:46">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="51"/>
+    </row>
+    <row r="8" spans="1:46">
+      <c r="A8" s="52"/>
+      <c r="B8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="51"/>
+    </row>
+    <row r="9" spans="1:46">
+      <c r="A9" s="59"/>
+      <c r="B9" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="51"/>
+    </row>
+    <row r="10" spans="1:46">
+      <c r="A10" s="53"/>
+      <c r="B10" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="51"/>
+    </row>
+    <row r="11" spans="1:46">
+      <c r="A11" s="53"/>
+      <c r="B11" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="51"/>
+    </row>
+    <row r="12" spans="1:46">
+      <c r="A12" s="53"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="51"/>
+    </row>
+    <row r="13" spans="1:46">
+      <c r="A13" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="51"/>
+    </row>
+    <row r="14" spans="1:46">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="51"/>
+    </row>
+    <row r="15" spans="1:46">
+      <c r="A15" s="1"/>
+      <c r="B15" s="136" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="136"/>
+      <c r="D15" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="125"/>
+      <c r="O15" s="125"/>
+      <c r="P15" s="125"/>
+      <c r="Q15" s="125"/>
+      <c r="R15" s="125"/>
+      <c r="S15" s="125"/>
+      <c r="T15" s="125"/>
+      <c r="U15" s="125"/>
+      <c r="V15" s="125"/>
+      <c r="W15" s="126"/>
+      <c r="X15" s="136" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y15" s="136"/>
+      <c r="Z15" s="136"/>
+      <c r="AA15" s="136"/>
+      <c r="AB15" s="136"/>
+      <c r="AC15" s="136"/>
+      <c r="AD15" s="136"/>
+      <c r="AE15" s="136"/>
+      <c r="AF15" s="136"/>
+      <c r="AG15" s="136"/>
+      <c r="AH15" s="136"/>
+      <c r="AI15" s="136"/>
+      <c r="AJ15" s="136"/>
+      <c r="AK15" s="136"/>
+      <c r="AL15" s="136"/>
+      <c r="AM15" s="136"/>
+      <c r="AN15" s="136"/>
+      <c r="AO15" s="136"/>
+      <c r="AP15" s="136"/>
+      <c r="AQ15" s="124" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR15" s="125"/>
+      <c r="AS15" s="126"/>
+      <c r="AT15" s="51"/>
+    </row>
+    <row r="16" spans="1:46" ht="39.950000000000003" customHeight="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="151">
+        <f>ROW()-15</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="151"/>
+      <c r="D16" s="141" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
+      <c r="M16" s="142"/>
+      <c r="N16" s="142"/>
+      <c r="O16" s="142"/>
+      <c r="P16" s="142"/>
+      <c r="Q16" s="142"/>
+      <c r="R16" s="142"/>
+      <c r="S16" s="142"/>
+      <c r="T16" s="142"/>
+      <c r="U16" s="142"/>
+      <c r="V16" s="142"/>
+      <c r="W16" s="143"/>
+      <c r="X16" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y16" s="137"/>
+      <c r="Z16" s="137"/>
+      <c r="AA16" s="137"/>
+      <c r="AB16" s="137"/>
+      <c r="AC16" s="137"/>
+      <c r="AD16" s="137"/>
+      <c r="AE16" s="137"/>
+      <c r="AF16" s="137"/>
+      <c r="AG16" s="137"/>
+      <c r="AH16" s="137"/>
+      <c r="AI16" s="137"/>
+      <c r="AJ16" s="137"/>
+      <c r="AK16" s="137"/>
+      <c r="AL16" s="137"/>
+      <c r="AM16" s="137"/>
+      <c r="AN16" s="137"/>
+      <c r="AO16" s="137"/>
+      <c r="AP16" s="137"/>
+      <c r="AQ16" s="127"/>
+      <c r="AR16" s="128"/>
+      <c r="AS16" s="129"/>
+      <c r="AT16" s="51"/>
+    </row>
+    <row r="17" spans="1:46" ht="39.950000000000003" customHeight="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="150">
+        <f>ROW()-15</f>
+        <v>2</v>
+      </c>
+      <c r="C17" s="150"/>
+      <c r="D17" s="144" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="145"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="145"/>
+      <c r="M17" s="145"/>
+      <c r="N17" s="145"/>
+      <c r="O17" s="145"/>
+      <c r="P17" s="145"/>
+      <c r="Q17" s="145"/>
+      <c r="R17" s="145"/>
+      <c r="S17" s="145"/>
+      <c r="T17" s="145"/>
+      <c r="U17" s="145"/>
+      <c r="V17" s="145"/>
+      <c r="W17" s="146"/>
+      <c r="X17" s="187" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y17" s="138"/>
+      <c r="Z17" s="138"/>
+      <c r="AA17" s="138"/>
+      <c r="AB17" s="138"/>
+      <c r="AC17" s="138"/>
+      <c r="AD17" s="138"/>
+      <c r="AE17" s="138"/>
+      <c r="AF17" s="138"/>
+      <c r="AG17" s="138"/>
+      <c r="AH17" s="138"/>
+      <c r="AI17" s="138"/>
+      <c r="AJ17" s="138"/>
+      <c r="AK17" s="138"/>
+      <c r="AL17" s="138"/>
+      <c r="AM17" s="138"/>
+      <c r="AN17" s="138"/>
+      <c r="AO17" s="138"/>
+      <c r="AP17" s="138"/>
+      <c r="AQ17" s="130"/>
+      <c r="AR17" s="131"/>
+      <c r="AS17" s="132"/>
+      <c r="AT17" s="51"/>
+    </row>
+    <row r="18" spans="1:46" ht="39.950000000000003" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="150">
+        <f t="shared" ref="B18:B20" si="0">ROW()-15</f>
+        <v>3</v>
+      </c>
+      <c r="C18" s="150"/>
+      <c r="D18" s="144" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="145"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="145"/>
+      <c r="M18" s="145"/>
+      <c r="N18" s="145"/>
+      <c r="O18" s="145"/>
+      <c r="P18" s="145"/>
+      <c r="Q18" s="145"/>
+      <c r="R18" s="145"/>
+      <c r="S18" s="145"/>
+      <c r="T18" s="145"/>
+      <c r="U18" s="145"/>
+      <c r="V18" s="145"/>
+      <c r="W18" s="146"/>
+      <c r="X18" s="187" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y18" s="138"/>
+      <c r="Z18" s="138"/>
+      <c r="AA18" s="138"/>
+      <c r="AB18" s="138"/>
+      <c r="AC18" s="138"/>
+      <c r="AD18" s="138"/>
+      <c r="AE18" s="138"/>
+      <c r="AF18" s="138"/>
+      <c r="AG18" s="138"/>
+      <c r="AH18" s="138"/>
+      <c r="AI18" s="138"/>
+      <c r="AJ18" s="138"/>
+      <c r="AK18" s="138"/>
+      <c r="AL18" s="138"/>
+      <c r="AM18" s="138"/>
+      <c r="AN18" s="138"/>
+      <c r="AO18" s="138"/>
+      <c r="AP18" s="138"/>
+      <c r="AQ18" s="130"/>
+      <c r="AR18" s="131"/>
+      <c r="AS18" s="132"/>
+      <c r="AT18" s="51"/>
+    </row>
+    <row r="19" spans="1:46" ht="39.950000000000003" customHeight="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="150">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C19" s="150"/>
+      <c r="D19" s="184" t="s">
+        <v>184</v>
+      </c>
+      <c r="E19" s="185"/>
+      <c r="F19" s="185"/>
+      <c r="G19" s="185"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="185"/>
+      <c r="J19" s="185"/>
+      <c r="K19" s="185"/>
+      <c r="L19" s="185"/>
+      <c r="M19" s="185"/>
+      <c r="N19" s="185"/>
+      <c r="O19" s="185"/>
+      <c r="P19" s="185"/>
+      <c r="Q19" s="185"/>
+      <c r="R19" s="185"/>
+      <c r="S19" s="185"/>
+      <c r="T19" s="185"/>
+      <c r="U19" s="185"/>
+      <c r="V19" s="185"/>
+      <c r="W19" s="186"/>
+      <c r="X19" s="187" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y19" s="138"/>
+      <c r="Z19" s="138"/>
+      <c r="AA19" s="138"/>
+      <c r="AB19" s="138"/>
+      <c r="AC19" s="138"/>
+      <c r="AD19" s="138"/>
+      <c r="AE19" s="138"/>
+      <c r="AF19" s="138"/>
+      <c r="AG19" s="138"/>
+      <c r="AH19" s="138"/>
+      <c r="AI19" s="138"/>
+      <c r="AJ19" s="138"/>
+      <c r="AK19" s="138"/>
+      <c r="AL19" s="138"/>
+      <c r="AM19" s="138"/>
+      <c r="AN19" s="138"/>
+      <c r="AO19" s="138"/>
+      <c r="AP19" s="138"/>
+      <c r="AQ19" s="130"/>
+      <c r="AR19" s="131"/>
+      <c r="AS19" s="132"/>
+      <c r="AT19" s="51"/>
+    </row>
+    <row r="20" spans="1:46" ht="39.950000000000003" customHeight="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="140">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C20" s="140"/>
+      <c r="D20" s="147" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" s="148"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="148"/>
+      <c r="K20" s="148"/>
+      <c r="L20" s="148"/>
+      <c r="M20" s="148"/>
+      <c r="N20" s="148"/>
+      <c r="O20" s="148"/>
+      <c r="P20" s="148"/>
+      <c r="Q20" s="148"/>
+      <c r="R20" s="148"/>
+      <c r="S20" s="148"/>
+      <c r="T20" s="148"/>
+      <c r="U20" s="148"/>
+      <c r="V20" s="148"/>
+      <c r="W20" s="149"/>
+      <c r="X20" s="183" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y20" s="139"/>
+      <c r="Z20" s="139"/>
+      <c r="AA20" s="139"/>
+      <c r="AB20" s="139"/>
+      <c r="AC20" s="139"/>
+      <c r="AD20" s="139"/>
+      <c r="AE20" s="139"/>
+      <c r="AF20" s="139"/>
+      <c r="AG20" s="139"/>
+      <c r="AH20" s="139"/>
+      <c r="AI20" s="139"/>
+      <c r="AJ20" s="139"/>
+      <c r="AK20" s="139"/>
+      <c r="AL20" s="139"/>
+      <c r="AM20" s="139"/>
+      <c r="AN20" s="139"/>
+      <c r="AO20" s="139"/>
+      <c r="AP20" s="139"/>
+      <c r="AQ20" s="133"/>
+      <c r="AR20" s="134"/>
+      <c r="AS20" s="135"/>
+      <c r="AT20" s="51"/>
+    </row>
+    <row r="21" spans="1:46">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="51"/>
+    </row>
+    <row r="22" spans="1:46">
+      <c r="A22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="56"/>
+      <c r="AC22" s="56"/>
+      <c r="AD22" s="56"/>
+      <c r="AE22" s="56"/>
+      <c r="AF22" s="56"/>
+      <c r="AG22" s="56"/>
+      <c r="AH22" s="56"/>
+      <c r="AI22" s="56"/>
+      <c r="AJ22" s="56"/>
+      <c r="AK22" s="56"/>
+      <c r="AL22" s="56"/>
+      <c r="AM22" s="56"/>
+      <c r="AN22" s="56"/>
+      <c r="AO22" s="56"/>
+      <c r="AP22" s="56"/>
+      <c r="AQ22" s="56"/>
+      <c r="AR22" s="56"/>
+      <c r="AS22" s="56"/>
+      <c r="AT22" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:W19"/>
+    <mergeCell ref="X19:AP19"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:W20"/>
     <mergeCell ref="X20:AP20"/>
     <mergeCell ref="AQ20:AS20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:W19"/>
-    <mergeCell ref="X19:AP19"/>
-    <mergeCell ref="AQ19:AS19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:W17"/>
+    <mergeCell ref="X17:AP17"/>
+    <mergeCell ref="AQ17:AS17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:W18"/>
     <mergeCell ref="X18:AP18"/>
     <mergeCell ref="AQ18:AS18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:W17"/>
-    <mergeCell ref="X17:AP17"/>
-    <mergeCell ref="AQ17:AS17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:W15"/>
+    <mergeCell ref="X15:AP15"/>
+    <mergeCell ref="AQ15:AS15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:W16"/>
     <mergeCell ref="X16:AP16"/>
     <mergeCell ref="AQ16:AS16"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:AK1"/>
+    <mergeCell ref="AL1:AT1"/>
+    <mergeCell ref="A2:I4"/>
+    <mergeCell ref="J2:AK4"/>
+    <mergeCell ref="AL2:AT2"/>
+    <mergeCell ref="AL3:AT3"/>
+    <mergeCell ref="AL4:AT4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>